--- a/100runs/run010/NotionalETEOutput010.xlsx
+++ b/100runs/run010/NotionalETEOutput010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,40 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_280.MISSILE_BRAVER_280</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_460.MISSILE_BRAVER_460</t>
+    <t>MISSILE_HELLMASKER_329.MISSILE_HELLMASKER_329</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_224.MISSILE_HIGHWIND_224</t>
+    <t>MISSILE_HIGHWIND_191.MISSILE_HIGHWIND_191</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_160.MISSILE_HELLMASKER_160</t>
+    <t>MISSILE_BRAVER_33.MISSILE_BRAVER_33</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_387.MISSILE_SOMERSAULT_387</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -483,31 +489,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G2">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H2">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I2">
-        <v>-1023.979201939344</v>
+        <v>1114862.286997705</v>
       </c>
       <c r="J2">
-        <v>1794.309769395757</v>
+        <v>4843218.806520222</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.720138484</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +524,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G3">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H3">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I3">
-        <v>-1003.763125905429</v>
+        <v>1114891.901018861</v>
       </c>
       <c r="J3">
-        <v>1750.661759362153</v>
+        <v>4843170.154976871</v>
       </c>
       <c r="K3">
-        <v>293.7976811269473</v>
+        <v>3984675.516237127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +559,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G4">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H4">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I4">
-        <v>-983.0492475976274</v>
+        <v>1114922.244258044</v>
       </c>
       <c r="J4">
-        <v>1707.01374932855</v>
+        <v>4843121.503433518</v>
       </c>
       <c r="K4">
-        <v>572.9452631526818</v>
+        <v>3984964.163669741</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +594,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G5">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H5">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I5">
-        <v>-961.8253090929151</v>
+        <v>1114953.334671576</v>
       </c>
       <c r="J5">
-        <v>1663.365739294946</v>
+        <v>4843072.851890166</v>
       </c>
       <c r="K5">
-        <v>837.4427460772056</v>
+        <v>3985237.662436325</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +629,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G6">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H6">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I6">
-        <v>-940.0787506281898</v>
+        <v>1114985.190657939</v>
       </c>
       <c r="J6">
-        <v>1619.717729261342</v>
+        <v>4843024.200346814</v>
       </c>
       <c r="K6">
-        <v>1087.290129900517</v>
+        <v>3985496.012536879</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G7">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H7">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I7">
-        <v>-917.7967031677373</v>
+        <v>1115017.831068659</v>
       </c>
       <c r="J7">
-        <v>1576.069719227738</v>
+        <v>4842975.548803463</v>
       </c>
       <c r="K7">
-        <v>1322.487414622618</v>
+        <v>3985739.213971403</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +699,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G8">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H8">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I8">
-        <v>-894.965980787679</v>
+        <v>1115051.275219464</v>
       </c>
       <c r="J8">
-        <v>1532.421709194134</v>
+        <v>4842926.89726011</v>
       </c>
       <c r="K8">
-        <v>1543.034600243506</v>
+        <v>3985967.266739898</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +734,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G9">
-        <v>-84.21958980896373</v>
+        <v>4841121.766472097</v>
       </c>
       <c r="H9">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I9">
-        <v>-871.5730728728913</v>
+        <v>1115085.542901715</v>
       </c>
       <c r="J9">
-        <v>1488.77369916053</v>
+        <v>4842878.245716758</v>
       </c>
       <c r="K9">
-        <v>1748.931686763184</v>
+        <v>3986180.170842363</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>147.4859518387354</v>
+        <v>1116578.568918282</v>
       </c>
       <c r="G10">
-        <v>-70.31256490601291</v>
+        <v>4841138.279281767</v>
       </c>
       <c r="H10">
-        <v>92.01358026227616</v>
+        <v>3985225.211869248</v>
       </c>
       <c r="I10">
-        <v>-847.6041361217827</v>
+        <v>1115120.654394115</v>
       </c>
       <c r="J10">
-        <v>1445.125689126926</v>
+        <v>4842829.594173406</v>
       </c>
       <c r="K10">
-        <v>1940.178674181648</v>
+        <v>3986377.926278799</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>114.4663038157014</v>
+        <v>1116529.888351675</v>
       </c>
       <c r="G11">
-        <v>-56.40554000306209</v>
+        <v>4841154.792091438</v>
       </c>
       <c r="H11">
-        <v>113.3601117186068</v>
+        <v>3985424.466120204</v>
       </c>
       <c r="I11">
-        <v>-823.0449863541954</v>
+        <v>1115156.630474714</v>
       </c>
       <c r="J11">
-        <v>1401.477679093322</v>
+        <v>4842780.942630054</v>
       </c>
       <c r="K11">
-        <v>2116.775562498901</v>
+        <v>3986560.533049205</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>95.06891704652401</v>
+        <v>1116501.290960875</v>
       </c>
       <c r="G12">
-        <v>-42.49851510011128</v>
+        <v>4841171.304901108</v>
       </c>
       <c r="H12">
-        <v>126.0751975570616</v>
+        <v>3985543.152142323</v>
       </c>
       <c r="I12">
-        <v>-797.8810901175849</v>
+        <v>1115193.492433201</v>
       </c>
       <c r="J12">
-        <v>1357.829669059718</v>
+        <v>4842732.291086702</v>
       </c>
       <c r="K12">
-        <v>2278.722351714944</v>
+        <v>3986727.991153581</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +874,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>82.82386345352556</v>
+        <v>1116483.238189791</v>
       </c>
       <c r="G13">
-        <v>-28.59149019716046</v>
+        <v>4841187.81771078</v>
       </c>
       <c r="H13">
-        <v>135.1618100260069</v>
+        <v>3985627.969020649</v>
       </c>
       <c r="I13">
-        <v>-772.0975560865074</v>
+        <v>1115231.262083502</v>
       </c>
       <c r="J13">
-        <v>1314.181659026114</v>
+        <v>4842683.63954335</v>
       </c>
       <c r="K13">
-        <v>2426.019041829774</v>
+        <v>3986880.300591927</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +909,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>74.28421278335908</v>
+        <v>1116470.648260518</v>
       </c>
       <c r="G14">
-        <v>-14.68446529420964</v>
+        <v>4841204.330520449</v>
       </c>
       <c r="H14">
-        <v>142.2375502874185</v>
+        <v>3985694.015878361</v>
       </c>
       <c r="I14">
-        <v>-745.6791262503314</v>
+        <v>1115269.961776695</v>
       </c>
       <c r="J14">
-        <v>1270.53364899251</v>
+        <v>4842634.987999998</v>
       </c>
       <c r="K14">
-        <v>2558.665632843393</v>
+        <v>3987017.461364244</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +944,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>67.91337765005575</v>
+        <v>1116461.255796254</v>
       </c>
       <c r="G15">
-        <v>-0.7774403912588297</v>
+        <v>4841220.843330121</v>
       </c>
       <c r="H15">
-        <v>148.0331304059572</v>
+        <v>3985748.113377889</v>
       </c>
       <c r="I15">
-        <v>-718.6101668839493</v>
+        <v>1115309.61441423</v>
       </c>
       <c r="J15">
-        <v>1226.885638958906</v>
+        <v>4842586.336456646</v>
       </c>
       <c r="K15">
-        <v>2676.6621247558</v>
+        <v>3987139.473470531</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +979,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>62.93227423656331</v>
+        <v>1116453.912200819</v>
       </c>
       <c r="G16">
-        <v>13.12958451169199</v>
+        <v>4841237.35613979</v>
       </c>
       <c r="H16">
-        <v>152.9415637095155</v>
+        <v>3985793.930011062</v>
       </c>
       <c r="I16">
-        <v>-690.8746592961561</v>
+        <v>1115350.243461484</v>
       </c>
       <c r="J16">
-        <v>1183.237628925302</v>
+        <v>4842537.684913293</v>
       </c>
       <c r="K16">
-        <v>2780.008517566995</v>
+        <v>3987246.336910789</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>58.9021988890159</v>
+        <v>1116447.970697407</v>
       </c>
       <c r="G17">
-        <v>27.03660941464281</v>
+        <v>4841253.868949462</v>
       </c>
       <c r="H17">
-        <v>157.1987356414215</v>
+        <v>3985833.667595888</v>
       </c>
       <c r="I17">
-        <v>-662.4561903502123</v>
+        <v>1115391.872961649</v>
       </c>
       <c r="J17">
-        <v>1139.589618891698</v>
+        <v>4842489.033369942</v>
       </c>
       <c r="K17">
-        <v>2868.704811276978</v>
+        <v>3987338.051685016</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1049,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>55.55580035425909</v>
+        <v>1116443.037132499</v>
       </c>
       <c r="G18">
-        <v>40.94363431759362</v>
+        <v>4841270.381759132</v>
       </c>
       <c r="H18">
-        <v>160.9573971943869</v>
+        <v>3985868.751951108</v>
       </c>
       <c r="I18">
-        <v>-633.3379427509871</v>
+        <v>1115434.527549957</v>
       </c>
       <c r="J18">
-        <v>1095.941608858094</v>
+        <v>4842440.38182659</v>
       </c>
       <c r="K18">
-        <v>2942.751005885751</v>
+        <v>3987414.617793215</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>52.71997938125795</v>
+        <v>1116438.856307444</v>
       </c>
       <c r="G19">
-        <v>54.85065922054446</v>
+        <v>4841286.894568802</v>
       </c>
       <c r="H19">
-        <v>164.3221556355408</v>
+        <v>3985900.159509016</v>
       </c>
       <c r="I19">
-        <v>-603.5026850929271</v>
+        <v>1115478.23246826</v>
       </c>
       <c r="J19">
-        <v>1052.29359882449</v>
+        <v>4842391.730283238</v>
       </c>
       <c r="K19">
-        <v>3002.147101393311</v>
+        <v>3987476.035235383</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1119,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>50.27719627675035</v>
+        <v>1116435.254934542</v>
       </c>
       <c r="G20">
-        <v>68.75768412349527</v>
+        <v>4841303.407378473</v>
       </c>
       <c r="H20">
-        <v>167.3677964241949</v>
+        <v>3985928.588337149</v>
       </c>
       <c r="I20">
-        <v>-572.9327616629712</v>
+        <v>1115523.013579969</v>
       </c>
       <c r="J20">
-        <v>1008.645588790886</v>
+        <v>4842343.078739885</v>
       </c>
       <c r="K20">
-        <v>3046.89309779966</v>
+        <v>3987522.304011522</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1154,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>48.14452040367545</v>
+        <v>1116432.110749909</v>
       </c>
       <c r="G21">
-        <v>82.66470902644608</v>
+        <v>4841319.920188144</v>
       </c>
       <c r="H21">
-        <v>170.1496415268198</v>
+        <v>3985954.554825585</v>
       </c>
       <c r="I21">
-        <v>-541.6100819923666</v>
+        <v>1115568.897385356</v>
       </c>
       <c r="J21">
-        <v>964.9975787572823</v>
+        <v>4842294.427196533</v>
       </c>
       <c r="K21">
-        <v>3076.988995104797</v>
+        <v>3987553.424121631</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>46.2615691767756</v>
+        <v>1116429.33473205</v>
       </c>
       <c r="G22">
-        <v>96.57173392939691</v>
+        <v>4841336.432997814</v>
       </c>
       <c r="H22">
-        <v>172.7097675635946</v>
+        <v>3985978.451728782</v>
       </c>
       <c r="I22">
-        <v>-509.5161101512102</v>
+        <v>1115615.911037238</v>
       </c>
       <c r="J22">
-        <v>921.3495687236785</v>
+        <v>4842245.775653182</v>
       </c>
       <c r="K22">
-        <v>3092.434793308722</v>
+        <v>3987569.39556571</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1224,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>44.58320639316958</v>
+        <v>1116426.860337071</v>
       </c>
       <c r="G23">
-        <v>110.4787588323477</v>
+        <v>4841352.945807485</v>
       </c>
       <c r="H23">
-        <v>175.0809233855309</v>
+        <v>3986000.584733302</v>
       </c>
       <c r="I23">
-        <v>-476.631853779378</v>
+        <v>1115664.082357047</v>
       </c>
       <c r="J23">
-        <v>877.7015586900745</v>
+        <v>4842197.12410983</v>
       </c>
       <c r="K23">
-        <v>3093.230492411436</v>
+        <v>3987570.21834376</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>43.07493236994468</v>
+        <v>1116424.636702404</v>
       </c>
       <c r="G24">
-        <v>124.3857837352985</v>
+        <v>4841369.458617156</v>
       </c>
       <c r="H24">
-        <v>177.2890984697638</v>
+        <v>3986021.196431895</v>
       </c>
       <c r="I24">
-        <v>-442.9378528473507</v>
+        <v>1115713.439851288</v>
       </c>
       <c r="J24">
-        <v>834.0535486564705</v>
+        <v>4842148.472566477</v>
       </c>
       <c r="K24">
-        <v>3079.376092412938</v>
+        <v>3987555.89245578</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1294,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>41.70986830921741</v>
+        <v>1116422.624200881</v>
       </c>
       <c r="G25">
-        <v>138.2928086382494</v>
+        <v>4841385.971426826</v>
       </c>
       <c r="H25">
-        <v>179.3552639575859</v>
+        <v>3986040.482574821</v>
       </c>
       <c r="I25">
-        <v>-408.4141681402843</v>
+        <v>1115764.012728417</v>
       </c>
       <c r="J25">
-        <v>790.4055386228666</v>
+        <v>4842099.821023125</v>
       </c>
       <c r="K25">
-        <v>3050.871593313228</v>
+        <v>3987526.41790177</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1329,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>40.46672259512654</v>
+        <v>1116420.791442467</v>
       </c>
       <c r="G26">
-        <v>152.1998335412002</v>
+        <v>4841402.484236497</v>
       </c>
       <c r="H26">
-        <v>181.2965868882153</v>
+        <v>3986058.603403827</v>
       </c>
       <c r="I26">
-        <v>-373.0403694585141</v>
+        <v>1115815.83091612</v>
       </c>
       <c r="J26">
-        <v>746.7575285892626</v>
+        <v>4842051.169479773</v>
       </c>
       <c r="K26">
-        <v>3007.716995112307</v>
+        <v>3987481.794681731</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1364,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>39.328382650099</v>
+        <v>1116419.113198245</v>
       </c>
       <c r="G27">
-        <v>166.106858444151</v>
+        <v>4841418.997046167</v>
       </c>
       <c r="H27">
-        <v>183.1272980425759</v>
+        <v>3986075.691752842</v>
       </c>
       <c r="I27">
-        <v>-336.7955235275035</v>
+        <v>1115868.925079022</v>
       </c>
       <c r="J27">
-        <v>703.1095185556586</v>
+        <v>4842002.517936421</v>
       </c>
       <c r="K27">
-        <v>2949.912297810174</v>
+        <v>3987422.022795662</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1399,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>38.28091718651726</v>
+        <v>1116417.568929443</v>
       </c>
       <c r="G28">
-        <v>180.0138833471018</v>
+        <v>4841435.509855838</v>
       </c>
       <c r="H28">
-        <v>184.8593256032073</v>
+        <v>3986091.85896272</v>
       </c>
       <c r="I28">
-        <v>-299.6581816100888</v>
+        <v>1115923.326636841</v>
       </c>
       <c r="J28">
-        <v>659.4615085220548</v>
+        <v>4841953.866393069</v>
       </c>
       <c r="K28">
-        <v>2877.45750140683</v>
+        <v>3987347.102243564</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1434,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>37.31285472190947</v>
+        <v>1116416.141723761</v>
       </c>
       <c r="G29">
-        <v>193.9209082500527</v>
+        <v>4841452.022665509</v>
       </c>
       <c r="H29">
-        <v>186.5027665950678</v>
+        <v>3986107.199281801</v>
       </c>
       <c r="I29">
-        <v>-261.6063668136853</v>
+        <v>1115979.067782972</v>
       </c>
       <c r="J29">
-        <v>615.8134984884508</v>
+        <v>4841905.214849717</v>
       </c>
       <c r="K29">
-        <v>2790.352605902273</v>
+        <v>3987257.033025436</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1469,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>36.41465235137162</v>
+        <v>1116414.81751218</v>
       </c>
       <c r="G30">
-        <v>207.8279331530034</v>
+        <v>4841468.53547518</v>
       </c>
       <c r="H30">
-        <v>188.0662435236375</v>
+        <v>3986121.793194865</v>
       </c>
       <c r="I30">
-        <v>-222.6175610849482</v>
+        <v>1116036.181503545</v>
       </c>
       <c r="J30">
-        <v>572.1654884548467</v>
+        <v>4841856.563306365</v>
       </c>
       <c r="K30">
-        <v>2688.597611296505</v>
+        <v>3987151.815141277</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1504,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>35.57829823369271</v>
+        <v>1116413.584482915</v>
       </c>
       <c r="G31">
-        <v>221.7349580559543</v>
+        <v>4841485.04828485</v>
       </c>
       <c r="H31">
-        <v>189.5571782054143</v>
+        <v>3986135.709979137</v>
       </c>
       <c r="I31">
-        <v>-182.6686918841847</v>
+        <v>1116094.701596945</v>
       </c>
       <c r="J31">
-        <v>528.5174784212429</v>
+        <v>4841807.911763012</v>
       </c>
       <c r="K31">
-        <v>2572.192517589526</v>
+        <v>3987031.44859109</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1539,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>34.79700977833101</v>
+        <v>1116412.432636454</v>
       </c>
       <c r="G32">
-        <v>235.6419829589051</v>
+        <v>4841501.561094522</v>
       </c>
       <c r="H32">
-        <v>190.9820048429755</v>
+        <v>3986149.009693192</v>
       </c>
       <c r="I32">
-        <v>-141.7361185316382</v>
+        <v>1116154.662693806</v>
       </c>
       <c r="J32">
-        <v>484.8694683876389</v>
+        <v>4841759.260219661</v>
       </c>
       <c r="K32">
-        <v>2441.137324781335</v>
+        <v>3986895.933374872</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1574,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>34.06500146031792</v>
+        <v>1116411.353443252</v>
       </c>
       <c r="G33">
-        <v>249.5490078618559</v>
+        <v>4841518.073904191</v>
       </c>
       <c r="H33">
-        <v>192.3463378355688</v>
+        <v>3986161.744743336</v>
       </c>
       <c r="I33">
-        <v>-99.79561821756191</v>
+        <v>1116216.100277515</v>
       </c>
       <c r="J33">
-        <v>441.2214583540351</v>
+        <v>4841710.608676309</v>
       </c>
       <c r="K33">
-        <v>2295.432032871932</v>
+        <v>3986745.269492626</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>33.37730405265445</v>
+        <v>1116410.339577222</v>
       </c>
       <c r="G34">
-        <v>263.4560327648067</v>
+        <v>4841534.586713863</v>
       </c>
       <c r="H34">
-        <v>193.655105395365</v>
+        <v>3986173.961130823</v>
       </c>
       <c r="I34">
-        <v>-56.82237166780423</v>
+        <v>1116279.050705201</v>
       </c>
       <c r="J34">
-        <v>397.5734483204311</v>
+        <v>4841661.957132957</v>
       </c>
       <c r="K34">
-        <v>2135.076641861318</v>
+        <v>3986579.456944349</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1644,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>32.72962234622994</v>
+        <v>1116409.384705976</v>
       </c>
       <c r="G35">
-        <v>277.3630576677576</v>
+        <v>4841551.099523532</v>
       </c>
       <c r="H35">
-        <v>194.9126570042176</v>
+        <v>3986185.699454887</v>
       </c>
       <c r="I35">
-        <v>-12.79094845642088</v>
+        <v>1116343.551229255</v>
       </c>
       <c r="J35">
-        <v>353.925438286827</v>
+        <v>4841613.305589605</v>
       </c>
       <c r="K35">
-        <v>1960.071151749491</v>
+        <v>3986398.495730042</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1679,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>32.11822203774209</v>
+        <v>1116408.483324065</v>
       </c>
       <c r="G36">
-        <v>291.2700825707084</v>
+        <v>4841567.612333204</v>
       </c>
       <c r="H36">
-        <v>196.1228506258812</v>
+        <v>3986196.995726794</v>
       </c>
       <c r="I36">
-        <v>32.32470804337634</v>
+        <v>1116409.640019375</v>
       </c>
       <c r="J36">
-        <v>310.2774282532232</v>
+        <v>4841564.654046253</v>
       </c>
       <c r="K36">
-        <v>1770.415562536454</v>
+        <v>3986202.385849707</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1714,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>31.53983897544217</v>
+        <v>1116407.630619179</v>
       </c>
       <c r="G37">
-        <v>305.1771074736592</v>
+        <v>4841584.125142874</v>
       </c>
       <c r="H37">
-        <v>197.2891240847945</v>
+        <v>3986207.882036119</v>
       </c>
       <c r="I37">
-        <v>78.55129607883808</v>
+        <v>1116477.356185151</v>
       </c>
       <c r="J37">
-        <v>266.6294182196191</v>
+        <v>4841516.002502901</v>
       </c>
       <c r="K37">
-        <v>1566.109874222205</v>
+        <v>3985991.127303341</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1749,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>30.99160572293226</v>
+        <v>1116406.822363884</v>
       </c>
       <c r="G38">
-        <v>319.08413237661</v>
+        <v>4841600.637952545</v>
       </c>
       <c r="H38">
-        <v>198.4145539403912</v>
+        <v>3986218.387100295</v>
       </c>
       <c r="I38">
-        <v>125.9161713169923</v>
+        <v>1116546.739799211</v>
       </c>
       <c r="J38">
-        <v>222.9814081860153</v>
+        <v>4841467.35095955</v>
       </c>
       <c r="K38">
-        <v>1347.154086806744</v>
+        <v>3985764.720090946</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1784,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>30.47099166769165</v>
+        <v>1116406.05482732</v>
       </c>
       <c r="G39">
-        <v>332.9911572795609</v>
+        <v>4841617.150762215</v>
       </c>
       <c r="H39">
-        <v>199.5019043969054</v>
+        <v>3986228.536721145</v>
       </c>
       <c r="I39">
-        <v>174.4473630329994</v>
+        <v>1116617.831920936</v>
       </c>
       <c r="J39">
-        <v>179.3333981524113</v>
+        <v>4841418.699416197</v>
       </c>
       <c r="K39">
-        <v>1113.548200290071</v>
+        <v>3985523.16421252</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1819,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>29.97575381858148</v>
+        <v>1116405.324702666</v>
       </c>
       <c r="G40">
-        <v>346.8981821825116</v>
+        <v>4841633.663571887</v>
       </c>
       <c r="H40">
-        <v>200.5536682063822</v>
+        <v>3986238.354166685</v>
       </c>
       <c r="I40">
-        <v>224.1735906971358</v>
+        <v>1116690.674620755</v>
       </c>
       <c r="J40">
-        <v>135.6853881188073</v>
+        <v>4841370.047872845</v>
       </c>
       <c r="K40">
-        <v>865.2922146721862</v>
+        <v>3985266.459668066</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>29.50389610928288</v>
+        <v>1116404.629047139</v>
       </c>
       <c r="G41">
-        <v>360.8052070854625</v>
+        <v>4841650.176381556</v>
       </c>
       <c r="H41">
-        <v>201.5721010880586</v>
+        <v>3986247.860492403</v>
       </c>
       <c r="I41">
-        <v>275.1242809702103</v>
+        <v>1116765.311005043</v>
       </c>
       <c r="J41">
-        <v>92.03737808520346</v>
+        <v>4841321.396329493</v>
       </c>
       <c r="K41">
-        <v>602.3861299530906</v>
+        <v>3984994.606457582</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>29.05363552325952</v>
+        <v>1116403.965232054</v>
       </c>
       <c r="G42">
-        <v>374.7122319884132</v>
+        <v>4841666.689191228</v>
       </c>
       <c r="H42">
-        <v>202.5592508595949</v>
+        <v>3986257.07481318</v>
       </c>
       <c r="I42">
-        <v>327.3295851174848</v>
+        <v>1116841.78524163</v>
       </c>
       <c r="J42">
-        <v>48.38936805159943</v>
+        <v>4841272.744786141</v>
       </c>
       <c r="K42">
-        <v>324.8299461327825</v>
+        <v>3984707.604581067</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1924,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>28.62337372923296</v>
+        <v>1116403.330901006</v>
       </c>
       <c r="G43">
-        <v>388.6192568913641</v>
+        <v>4841683.202000898</v>
       </c>
       <c r="H43">
-        <v>203.5169822261187</v>
+        <v>3986266.014534673</v>
       </c>
       <c r="I43">
-        <v>380.8203968513863</v>
+        <v>1116920.142585937</v>
       </c>
       <c r="J43">
-        <v>4.741358017995399</v>
+        <v>4841224.093242789</v>
       </c>
       <c r="K43">
-        <v>32.623663211263</v>
+        <v>3984405.454038524</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1959,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>28.21167319846593</v>
+        <v>1116402.72393466</v>
       </c>
       <c r="G44">
-        <v>402.5262817943149</v>
+        <v>4841699.714810569</v>
       </c>
       <c r="H44">
-        <v>204.4469979813255</v>
+        <v>3986274.695551214</v>
       </c>
       <c r="I44">
-        <v>435.6283706135902</v>
+        <v>1117000.429407761</v>
       </c>
       <c r="J44">
-        <v>-38.90665201560842</v>
+        <v>4841175.441699437</v>
       </c>
       <c r="K44">
-        <v>-274.2327188114673</v>
+        <v>3984088.154829951</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1994,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>27.81723699049631</v>
+        <v>1116402.142420948</v>
       </c>
       <c r="G45">
-        <v>416.4333066972657</v>
+        <v>4841716.227620239</v>
       </c>
       <c r="H45">
-        <v>205.3508572263231</v>
+        <v>3986283.132415873</v>
       </c>
       <c r="I45">
-        <v>491.7859403072774</v>
+        <v>1117082.69321871</v>
       </c>
       <c r="J45">
-        <v>-82.55466204921245</v>
+        <v>4841126.790156085</v>
       </c>
       <c r="K45">
-        <v>-595.7391999354102</v>
+        <v>3983755.706955348</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>27.43889155961761</v>
+        <v>1116401.584629722</v>
       </c>
       <c r="G46">
-        <v>430.3403316002166</v>
+        <v>4841732.740429909</v>
       </c>
       <c r="H46">
-        <v>206.2299910958746</v>
+        <v>3986291.338487245</v>
       </c>
       <c r="I46">
-        <v>549.3263384906553</v>
+        <v>1117166.982700322</v>
       </c>
       <c r="J46">
-        <v>-126.2026720828165</v>
+        <v>4841078.138612732</v>
       </c>
       <c r="K46">
-        <v>-931.8957801605654</v>
+        <v>3983408.110414715</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2064,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>27.07557206284073</v>
+        <v>1116401.048991095</v>
       </c>
       <c r="G47">
-        <v>444.2473565031673</v>
+        <v>4841749.25323958</v>
       </c>
       <c r="H47">
-        <v>207.0857163903927</v>
+        <v>3986299.326056698</v>
       </c>
       <c r="I47">
-        <v>608.2836160431031</v>
+        <v>1117253.347732873</v>
       </c>
       <c r="J47">
-        <v>-169.8506821164205</v>
+        <v>4841029.48706938</v>
       </c>
       <c r="K47">
-        <v>-1282.702459486932</v>
+        <v>3983045.365208053</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2099,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>26.72630975039102</v>
+        <v>1116400.534076846</v>
       </c>
       <c r="G48">
-        <v>458.1543814061181</v>
+        <v>4841765.766049251</v>
       </c>
       <c r="H48">
-        <v>207.9192474396886</v>
+        <v>3986307.106459112</v>
       </c>
       <c r="I48">
-        <v>668.6926623155787</v>
+        <v>1117341.839424898</v>
       </c>
       <c r="J48">
-        <v>-213.4986921500241</v>
+        <v>4840980.835526029</v>
       </c>
       <c r="K48">
-        <v>-1648.159237914507</v>
+        <v>3982667.47133536</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>26.39022109870672</v>
+        <v>1116400.038584405</v>
       </c>
       <c r="G49">
-        <v>472.061406309069</v>
+        <v>4841782.278858921</v>
       </c>
       <c r="H49">
-        <v>208.7317064667673</v>
+        <v>3986314.690169618</v>
       </c>
       <c r="I49">
-        <v>730.5892257772113</v>
+        <v>1117432.510143427</v>
       </c>
       <c r="J49">
-        <v>-257.1467021836282</v>
+        <v>4840932.183982677</v>
       </c>
       <c r="K49">
-        <v>-2028.266115443296</v>
+        <v>3982274.428796639</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>26.06649840838553</v>
+        <v>1116399.561322988</v>
       </c>
       <c r="G50">
-        <v>485.9684312120198</v>
+        <v>4841798.791668592</v>
       </c>
       <c r="H50">
-        <v>209.5241326736371</v>
+        <v>3986322.086888406</v>
       </c>
       <c r="I50">
-        <v>794.0099351702918</v>
+        <v>1117525.413544984</v>
       </c>
       <c r="J50">
-        <v>-300.7947122172322</v>
+        <v>4840883.532439324</v>
       </c>
       <c r="K50">
-        <v>-2423.023092073298</v>
+        <v>3981866.237591887</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>25.75440163930868</v>
+        <v>1116399.101201562</v>
       </c>
       <c r="G51">
-        <v>499.8754561149706</v>
+        <v>4841815.304478263</v>
       </c>
       <c r="H51">
-        <v>210.2974902337008</v>
+        <v>3986329.30561533</v>
       </c>
       <c r="I51">
-        <v>858.9923211861942</v>
+        <v>1117620.604607336</v>
       </c>
       <c r="J51">
-        <v>-344.4427222508362</v>
+        <v>4840834.880895972</v>
       </c>
       <c r="K51">
-        <v>-2832.430167804511</v>
+        <v>3981442.897721106</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2239,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>25.45325129507451</v>
+        <v>1116398.657218349</v>
       </c>
       <c r="G52">
-        <v>513.7824810179214</v>
+        <v>4841831.817287933</v>
       </c>
       <c r="H52">
-        <v>211.0526753449288</v>
+        <v>3986336.354715741</v>
       </c>
       <c r="I52">
-        <v>925.5748386750399</v>
+        <v>1117718.139662023</v>
       </c>
       <c r="J52">
-        <v>-388.0907322844403</v>
+        <v>4840786.22935262</v>
       </c>
       <c r="K52">
-        <v>-3256.487342636936</v>
+        <v>3981004.409184295</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2274,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>25.1624222010323</v>
+        <v>1116398.228451663</v>
       </c>
       <c r="G53">
-        <v>527.6895059208723</v>
+        <v>4841848.330097605</v>
       </c>
       <c r="H53">
-        <v>211.7905224732215</v>
+        <v>3986343.241978769</v>
       </c>
       <c r="I53">
-        <v>993.7968894022541</v>
+        <v>1117818.076427701</v>
       </c>
       <c r="J53">
-        <v>-431.7387423180439</v>
+        <v>4840737.577809269</v>
       </c>
       <c r="K53">
-        <v>-3695.194616570569</v>
+        <v>3980550.771981455</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2309,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>24.88133804627049</v>
+        <v>1116397.814051851</v>
       </c>
       <c r="G54">
-        <v>541.5965308238231</v>
+        <v>4841864.842907275</v>
       </c>
       <c r="H54">
-        <v>212.5118098950377</v>
+        <v>3986349.974669054</v>
       </c>
       <c r="I54">
-        <v>1063.698845365491</v>
+        <v>1117920.474044295</v>
       </c>
       <c r="J54">
-        <v>-475.3867523516479</v>
+        <v>4840688.926265916</v>
       </c>
       <c r="K54">
-        <v>-4148.551989605417</v>
+        <v>3980081.986112585</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,34 +2341,34 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G55">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H55">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I55">
-        <v>-1832.151081056358</v>
+        <v>1114861.942252171</v>
       </c>
       <c r="J55">
-        <v>2590.201337142793</v>
+        <v>4843219.35287194</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984370.945350568</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,34 +2376,34 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G56">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H56">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I56">
-        <v>-1795.979540179252</v>
+        <v>1114891.55626417</v>
       </c>
       <c r="J56">
-        <v>2527.192632692203</v>
+        <v>4843170.7013231</v>
       </c>
       <c r="K56">
-        <v>294.3756035701558</v>
+        <v>3984674.741390136</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,34 +2411,34 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G57">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H57">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I57">
-        <v>-1758.917308385255</v>
+        <v>1114921.89949397</v>
       </c>
       <c r="J57">
-        <v>2464.183928241614</v>
+        <v>4843122.049774259</v>
       </c>
       <c r="K57">
-        <v>574.0722901769791</v>
+        <v>3984963.38876662</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,34 +2446,34 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G58">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H58">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I58">
-        <v>-1720.942453229959</v>
+        <v>1114952.989897888</v>
       </c>
       <c r="J58">
-        <v>2401.175223791024</v>
+        <v>4843073.398225419</v>
       </c>
       <c r="K58">
-        <v>839.0900598204718</v>
+        <v>3985236.88748002</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,34 +2481,34 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G59">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H59">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I59">
-        <v>-1682.03250220269</v>
+        <v>1114984.8458744</v>
       </c>
       <c r="J59">
-        <v>2338.166519340435</v>
+        <v>4843024.746676579</v>
       </c>
       <c r="K59">
-        <v>1089.428912500632</v>
+        <v>3985495.237530336</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,34 +2516,34 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G60">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H60">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I60">
-        <v>-1642.164429427873</v>
+        <v>1115017.486275026</v>
       </c>
       <c r="J60">
-        <v>2275.157814889845</v>
+        <v>4842976.095127739</v>
       </c>
       <c r="K60">
-        <v>1325.088848217463</v>
+        <v>3985738.438917569</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,34 +2551,34 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G61">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H61">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I61">
-        <v>-1601.314642038931</v>
+        <v>1115050.93041549</v>
       </c>
       <c r="J61">
-        <v>2212.149110439255</v>
+        <v>4842927.443578898</v>
       </c>
       <c r="K61">
-        <v>1546.069866970961</v>
+        <v>3985966.491641717</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,34 +2586,34 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G62">
-        <v>-64.98411053821513</v>
+        <v>4841128.980059869</v>
       </c>
       <c r="H62">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I62">
-        <v>-1559.45896621665</v>
+        <v>1115085.198087144</v>
       </c>
       <c r="J62">
-        <v>2149.140405988665</v>
+        <v>4842878.792030058</v>
       </c>
       <c r="K62">
-        <v>1752.371968761128</v>
+        <v>3986179.395702782</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,34 +2621,34 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>228.5582947589148</v>
+        <v>1116577.984431861</v>
       </c>
       <c r="G63">
-        <v>-54.25340470598512</v>
+        <v>4841145.492894145</v>
       </c>
       <c r="H63">
-        <v>1056.334235075237</v>
+        <v>3985226.107261537</v>
       </c>
       <c r="I63">
-        <v>-1516.572632883763</v>
+        <v>1115120.309568687</v>
       </c>
       <c r="J63">
-        <v>2086.131701538076</v>
+        <v>4842830.140481218</v>
       </c>
       <c r="K63">
-        <v>1943.995153587963</v>
+        <v>3986377.151100762</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,34 +2656,34 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>177.3878995341806</v>
+        <v>1116529.303890737</v>
       </c>
       <c r="G64">
-        <v>-43.5226988737551</v>
+        <v>4841162.00572842</v>
       </c>
       <c r="H64">
-        <v>1301.396669480663</v>
+        <v>3985425.361557261</v>
       </c>
       <c r="I64">
-        <v>-1472.630263047256</v>
+        <v>1115156.285638161</v>
       </c>
       <c r="J64">
-        <v>2023.122997087486</v>
+        <v>4842781.488932378</v>
       </c>
       <c r="K64">
-        <v>2120.939421451467</v>
+        <v>3986559.757835659</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,34 +2691,34 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>147.327859323775</v>
+        <v>1116500.706514906</v>
       </c>
       <c r="G65">
-        <v>-32.7919930415251</v>
+        <v>4841178.518562696</v>
       </c>
       <c r="H65">
-        <v>1447.368388381235</v>
+        <v>3985544.047606045</v>
       </c>
       <c r="I65">
-        <v>-1427.605852779764</v>
+        <v>1115193.147585249</v>
       </c>
       <c r="J65">
-        <v>1960.114292636896</v>
+        <v>4842732.837383537</v>
       </c>
       <c r="K65">
-        <v>2283.20477235164</v>
+        <v>3986727.215907472</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,34 +2726,34 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>128.3517566268387</v>
+        <v>1116482.653753272</v>
       </c>
       <c r="G66">
-        <v>-22.06128720929508</v>
+        <v>4841195.031396972</v>
       </c>
       <c r="H66">
-        <v>1551.684510028157</v>
+        <v>3985628.864503428</v>
       </c>
       <c r="I66">
-        <v>-1381.472757831132</v>
+        <v>1115230.917223871</v>
       </c>
       <c r="J66">
-        <v>1897.105588186307</v>
+        <v>4842684.185834697</v>
       </c>
       <c r="K66">
-        <v>2430.791206288482</v>
+        <v>3986879.5253162</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,34 +2761,34 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>115.1178996345183</v>
+        <v>1116470.063830589</v>
       </c>
       <c r="G67">
-        <v>-11.33058137706506</v>
+        <v>4841211.544231247</v>
       </c>
       <c r="H67">
-        <v>1632.915418067212</v>
+        <v>3985694.911375979</v>
       </c>
       <c r="I67">
-        <v>-1334.20367786106</v>
+        <v>1115269.616905097</v>
       </c>
       <c r="J67">
-        <v>1834.096883735717</v>
+        <v>4842635.534285857</v>
       </c>
       <c r="K67">
-        <v>2563.698723261991</v>
+        <v>3987016.686061845</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,34 +2796,34 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>105.245046009448</v>
+        <v>1116460.671371242</v>
       </c>
       <c r="G68">
-        <v>-0.5998755448350556</v>
+        <v>4841228.057065523</v>
       </c>
       <c r="H68">
-        <v>1699.449832594758</v>
+        <v>3985749.008887662</v>
       </c>
       <c r="I68">
-        <v>-1285.770640283481</v>
+        <v>1115309.26953037</v>
       </c>
       <c r="J68">
-        <v>1771.088179285127</v>
+        <v>4842586.882737017</v>
       </c>
       <c r="K68">
-        <v>2681.927323272169</v>
+        <v>3987138.698144407</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,34 +2831,34 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>97.52585317777771</v>
+        <v>1116453.327779651</v>
       </c>
       <c r="G69">
-        <v>10.13083028739496</v>
+        <v>4841244.569899798</v>
       </c>
       <c r="H69">
-        <v>1755.799624922726</v>
+        <v>3985794.825531129</v>
       </c>
       <c r="I69">
-        <v>-1236.144983713132</v>
+        <v>1115349.898565061</v>
       </c>
       <c r="J69">
-        <v>1708.079474834538</v>
+        <v>4842538.231188176</v>
       </c>
       <c r="K69">
-        <v>2785.477006319016</v>
+        <v>3987245.561563884</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,34 +2866,34 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>91.2804641240966</v>
+        <v>1116447.386279349</v>
       </c>
       <c r="G70">
-        <v>20.86153611962498</v>
+        <v>4841261.082734074</v>
       </c>
       <c r="H70">
-        <v>1804.672806940592</v>
+        <v>3985834.563124883</v>
       </c>
       <c r="I70">
-        <v>-1185.297341004504</v>
+        <v>1115391.528052353</v>
       </c>
       <c r="J70">
-        <v>1645.070770383948</v>
+        <v>4842489.579639336</v>
       </c>
       <c r="K70">
-        <v>2874.347772402532</v>
+        <v>3987337.276320277</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,34 +2901,34 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.09456585275446</v>
+        <v>1116442.452717024</v>
       </c>
       <c r="G71">
-        <v>31.59224195185498</v>
+        <v>4841277.595568351</v>
       </c>
       <c r="H71">
-        <v>1847.822990480251</v>
+        <v>3985869.647487986</v>
       </c>
       <c r="I71">
-        <v>-1133.19762187315</v>
+        <v>1115434.182627471</v>
       </c>
       <c r="J71">
-        <v>1582.062065933358</v>
+        <v>4842440.928090496</v>
       </c>
       <c r="K71">
-        <v>2948.539621522717</v>
+        <v>3987413.842413586</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,34 +2936,34 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>81.69990725815551</v>
+        <v>1116438.271894157</v>
       </c>
       <c r="G72">
-        <v>42.32294778408501</v>
+        <v>4841294.108402626</v>
       </c>
       <c r="H72">
-        <v>1886.451087811297</v>
+        <v>3985901.05505295</v>
       </c>
       <c r="I72">
-        <v>-1079.814995089049</v>
+        <v>1115477.887532259</v>
       </c>
       <c r="J72">
-        <v>1519.053361482768</v>
+        <v>4842392.276541656</v>
       </c>
       <c r="K72">
-        <v>3008.052553679569</v>
+        <v>3987475.259843811</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,34 +2971,34 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>77.91433762341073</v>
+        <v>1116434.67052314</v>
       </c>
       <c r="G73">
-        <v>53.05365361631502</v>
+        <v>4841310.621236902</v>
       </c>
       <c r="H73">
-        <v>1921.415650907598</v>
+        <v>3985929.483887471</v>
       </c>
       <c r="I73">
-        <v>-1025.117870231506</v>
+        <v>1115522.668630121</v>
       </c>
       <c r="J73">
-        <v>1456.044657032179</v>
+        <v>4842343.624992815</v>
       </c>
       <c r="K73">
-        <v>3052.886568873091</v>
+        <v>3987521.528610953</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,34 +3006,34 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>74.60933972532985</v>
+        <v>1116431.526340154</v>
       </c>
       <c r="G74">
-        <v>63.78435944854503</v>
+        <v>4841327.134071178</v>
       </c>
       <c r="H74">
-        <v>1953.351786967111</v>
+        <v>3985955.450381741</v>
       </c>
       <c r="I74">
-        <v>-969.0738789947784</v>
+        <v>1115568.55242132</v>
       </c>
       <c r="J74">
-        <v>1393.035952581589</v>
+        <v>4842294.973443975</v>
       </c>
       <c r="K74">
-        <v>3083.041667103281</v>
+        <v>3987552.648715011</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,34 +3041,34 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>71.69133895190699</v>
+        <v>1116428.750323748</v>
       </c>
       <c r="G75">
-        <v>74.51506528077505</v>
+        <v>4841343.646905454</v>
       </c>
       <c r="H75">
-        <v>1982.742543973243</v>
+        <v>3985979.347290307</v>
       </c>
       <c r="I75">
-        <v>-911.6498560333723</v>
+        <v>1115615.566058664</v>
       </c>
       <c r="J75">
-        <v>1330.027248131</v>
+        <v>4842246.321895135</v>
       </c>
       <c r="K75">
-        <v>3098.517848370139</v>
+        <v>3987568.620155985</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,34 +3076,34 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.09038793911319</v>
+        <v>1116426.275930064</v>
       </c>
       <c r="G76">
-        <v>85.24577111300505</v>
+        <v>4841360.15973973</v>
       </c>
       <c r="H76">
-        <v>2009.963885260797</v>
+        <v>3986001.480299799</v>
       </c>
       <c r="I76">
-        <v>-852.811819335674</v>
+        <v>1115663.737363576</v>
       </c>
       <c r="J76">
-        <v>1267.01854368041</v>
+        <v>4842197.670346295</v>
       </c>
       <c r="K76">
-        <v>3099.315112673667</v>
+        <v>3987569.442933874</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,34 +3111,34 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>66.75302268852724</v>
+        <v>1116424.05229656</v>
       </c>
       <c r="G77">
-        <v>95.97647694523508</v>
+        <v>4841376.672574006</v>
       </c>
       <c r="H77">
-        <v>2035.314175205679</v>
+        <v>3986022.092003024</v>
       </c>
       <c r="I77">
-        <v>-792.5249501142965</v>
+        <v>1115713.094842555</v>
       </c>
       <c r="J77">
-        <v>1204.00983922982</v>
+        <v>4842149.018797453</v>
       </c>
       <c r="K77">
-        <v>3085.433460013862</v>
+        <v>3987555.117048679</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,34 +3146,34 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>64.63758925187254</v>
+        <v>1116422.039796091</v>
       </c>
       <c r="G78">
-        <v>106.7071827774651</v>
+        <v>4841393.185408281</v>
       </c>
       <c r="H78">
-        <v>2059.034166688417</v>
+        <v>3986041.378150282</v>
       </c>
       <c r="I78">
-        <v>-730.7535722012447</v>
+        <v>1115763.667704046</v>
       </c>
       <c r="J78">
-        <v>1141.001134779231</v>
+        <v>4842100.367248613</v>
       </c>
       <c r="K78">
-        <v>3056.872890390727</v>
+        <v>3987525.642500401</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,34 +3181,34 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>62.71109211091001</v>
+        <v>1116420.207038637</v>
       </c>
       <c r="G79">
-        <v>117.4378886096951</v>
+        <v>4841409.698242557</v>
       </c>
       <c r="H79">
-        <v>2081.32094073976</v>
+        <v>3986059.49898336</v>
       </c>
       <c r="I79">
-        <v>-667.4611309357098</v>
+        <v>1115815.485875724</v>
       </c>
       <c r="J79">
-        <v>1077.992430328641</v>
+        <v>4842051.715699773</v>
       </c>
       <c r="K79">
-        <v>3013.63340380426</v>
+        <v>3987481.01928904</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,34 +3216,34 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>60.94701198363162</v>
+        <v>1116418.528795293</v>
       </c>
       <c r="G80">
-        <v>128.1685944419251</v>
+        <v>4841426.211076832</v>
       </c>
       <c r="H80">
-        <v>2102.33786956019</v>
+        <v>3986076.587336214</v>
       </c>
       <c r="I80">
-        <v>-602.6101715319895</v>
+        <v>1115868.580022209</v>
       </c>
       <c r="J80">
-        <v>1014.983725878051</v>
+        <v>4842003.064150932</v>
       </c>
       <c r="K80">
-        <v>2955.715000254461</v>
+        <v>3987421.247414594</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,34 +3251,34 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.32375961830213</v>
+        <v>1116416.9845273</v>
       </c>
       <c r="G81">
-        <v>138.8993002741551</v>
+        <v>4841442.723911108</v>
       </c>
       <c r="H81">
-        <v>2122.221891061948</v>
+        <v>3986092.754549725</v>
       </c>
       <c r="I81">
-        <v>-536.1623169147416</v>
+        <v>1115922.981563205</v>
       </c>
       <c r="J81">
-        <v>951.9750214274616</v>
+        <v>4841954.412602092</v>
       </c>
       <c r="K81">
-        <v>2883.117679741332</v>
+        <v>3987346.326877064</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,34 +3286,34 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>57.82355771179921</v>
+        <v>1116415.557322365</v>
       </c>
       <c r="G82">
-        <v>149.6300061063851</v>
+        <v>4841459.236745385</v>
       </c>
       <c r="H82">
-        <v>2141.088921103381</v>
+        <v>3986108.094872253</v>
       </c>
       <c r="I82">
-        <v>-468.0782450084485</v>
+        <v>1115978.722692099</v>
       </c>
       <c r="J82">
-        <v>888.9663169768718</v>
+        <v>4841905.761053252</v>
       </c>
       <c r="K82">
-        <v>2795.84144226487</v>
+        <v>3987256.257676451</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,34 +3321,34 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.43161766870265</v>
+        <v>1116414.233111477</v>
       </c>
       <c r="G83">
-        <v>160.3607119386151</v>
+        <v>4841475.74957966</v>
       </c>
       <c r="H83">
-        <v>2159.037947765434</v>
+        <v>3986122.688788596</v>
       </c>
       <c r="I83">
-        <v>-398.3176654676608</v>
+        <v>1116035.836395012</v>
       </c>
       <c r="J83">
-        <v>825.957612526282</v>
+        <v>4841857.109504412</v>
       </c>
       <c r="K83">
-        <v>2693.886287825077</v>
+        <v>3987151.039812753</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,34 +3356,34 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.13552357588829</v>
+        <v>1116413.000082857</v>
       </c>
       <c r="G84">
-        <v>171.0914177708452</v>
+        <v>4841492.262413936</v>
       </c>
       <c r="H84">
-        <v>2176.154174980294</v>
+        <v>3986136.605575995</v>
       </c>
       <c r="I84">
-        <v>-326.8392958342378</v>
+        <v>1116094.356470315</v>
       </c>
       <c r="J84">
-        <v>762.9489080756925</v>
+        <v>4841808.457955571</v>
       </c>
       <c r="K84">
-        <v>2577.252216421954</v>
+        <v>3987030.673285971</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,34 +3391,34 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>53.92476448428646</v>
+        <v>1116411.848237</v>
       </c>
       <c r="G85">
-        <v>181.8221236030752</v>
+        <v>4841508.775248212</v>
       </c>
       <c r="H85">
-        <v>2192.51146867556</v>
+        <v>3986149.905293037</v>
       </c>
       <c r="I85">
-        <v>-253.600837107486</v>
+        <v>1116154.317548635</v>
       </c>
       <c r="J85">
-        <v>699.9402036251028</v>
+        <v>4841759.806406732</v>
       </c>
       <c r="K85">
-        <v>2445.939228055498</v>
+        <v>3986895.158096106</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,34 +3426,34 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>52.79037459271665</v>
+        <v>1116410.769044362</v>
       </c>
       <c r="G86">
-        <v>192.5528294353052</v>
+        <v>4841525.288082487</v>
       </c>
       <c r="H86">
-        <v>2208.174283273264</v>
+        <v>3986162.640346042</v>
       </c>
       <c r="I86">
-        <v>-178.5589487127341</v>
+        <v>1116215.755113346</v>
       </c>
       <c r="J86">
-        <v>636.9314991745132</v>
+        <v>4841711.154857892</v>
       </c>
       <c r="K86">
-        <v>2299.947322725712</v>
+        <v>3986744.494243156</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,34 +3461,34 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>51.72465311317159</v>
+        <v>1116409.755178863</v>
       </c>
       <c r="G87">
-        <v>203.2835352675352</v>
+        <v>4841541.800916763</v>
       </c>
       <c r="H87">
-        <v>2223.199195631069</v>
+        <v>3986174.856736275</v>
       </c>
       <c r="I87">
-        <v>-101.6692228535327</v>
+        <v>1116278.705521566</v>
       </c>
       <c r="J87">
-        <v>573.9227947239234</v>
+        <v>4841662.503309052</v>
       </c>
       <c r="K87">
-        <v>2139.276500432593</v>
+        <v>3986578.681727123</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,34 +3496,34 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>50.72094378003596</v>
+        <v>1116408.800308117</v>
       </c>
       <c r="G88">
-        <v>214.0142410997652</v>
+        <v>4841558.313751039</v>
       </c>
       <c r="H88">
-        <v>2237.636138667287</v>
+        <v>3986186.595062975</v>
       </c>
       <c r="I88">
-        <v>-22.88615823229958</v>
+        <v>1116343.206025675</v>
       </c>
       <c r="J88">
-        <v>510.9140902733336</v>
+        <v>4841613.85176021</v>
       </c>
       <c r="K88">
-        <v>1963.926761176143</v>
+        <v>3986397.720548006</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,34 +3531,34 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>49.77345956082129</v>
+        <v>1116407.898926678</v>
       </c>
       <c r="G89">
-        <v>224.7449469319953</v>
+        <v>4841574.826585315</v>
       </c>
       <c r="H89">
-        <v>2251.529402574518</v>
+        <v>3986197.89133742</v>
       </c>
       <c r="I89">
-        <v>57.83686687614119</v>
+        <v>1116409.294795358</v>
       </c>
       <c r="J89">
-        <v>447.9053858227441</v>
+        <v>4841565.20021137</v>
       </c>
       <c r="K89">
-        <v>1773.898104956363</v>
+        <v>3986201.610705805</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,34 +3566,34 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>48.87714201471864</v>
+        <v>1116407.046222238</v>
       </c>
       <c r="G90">
-        <v>235.4756527642252</v>
+        <v>4841591.339419591</v>
       </c>
       <c r="H90">
-        <v>2264.918454262303</v>
+        <v>3986208.777649192</v>
       </c>
       <c r="I90">
-        <v>140.5476222140558</v>
+        <v>1116477.010940194</v>
       </c>
       <c r="J90">
-        <v>384.8966813721543</v>
+        <v>4841516.54866253</v>
       </c>
       <c r="K90">
-        <v>1569.19053177325</v>
+        <v>3985990.35220052</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,34 +3601,34 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.02754748885621</v>
+        <v>1116406.237967366</v>
       </c>
       <c r="G91">
-        <v>246.2063585964553</v>
+        <v>4841607.852253866</v>
       </c>
       <c r="H91">
-        <v>2277.838613245943</v>
+        <v>3986219.282715728</v>
       </c>
       <c r="I91">
-        <v>225.2950538096677</v>
+        <v>1116546.394532799</v>
       </c>
       <c r="J91">
-        <v>321.8879769215648</v>
+        <v>4841467.89711369</v>
       </c>
       <c r="K91">
-        <v>1349.804041626807</v>
+        <v>3985763.945032151</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,34 +3636,34 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.2207543047608</v>
+        <v>1116405.470431204</v>
       </c>
       <c r="G92">
-        <v>256.9370644286853</v>
+        <v>4841624.365088142</v>
       </c>
       <c r="H92">
-        <v>2290.321613140814</v>
+        <v>3986229.432338858</v>
       </c>
       <c r="I92">
-        <v>312.1293129421132</v>
+        <v>1116617.486632541</v>
       </c>
       <c r="J92">
-        <v>258.879272470975</v>
+        <v>4841419.245564849</v>
       </c>
       <c r="K92">
-        <v>1115.738634517031</v>
+        <v>3985522.389200698</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,34 +3671,34 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.45328650947913</v>
+        <v>1116404.740306932</v>
       </c>
       <c r="G93">
-        <v>267.6677702609153</v>
+        <v>4841640.877922419</v>
       </c>
       <c r="H93">
-        <v>2302.396071237071</v>
+        <v>3986239.249786604</v>
       </c>
       <c r="I93">
-        <v>401.1017858196424</v>
+        <v>1116690.329309835</v>
       </c>
       <c r="J93">
-        <v>195.8705680203852</v>
+        <v>4841370.594016009</v>
       </c>
       <c r="K93">
-        <v>866.9943104439243</v>
+        <v>3985265.684706161</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,34 +3706,34 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>45.72205080830497</v>
+        <v>1116404.044651769</v>
       </c>
       <c r="G94">
-        <v>278.3984760931453</v>
+        <v>4841657.390756694</v>
       </c>
       <c r="H94">
-        <v>2314.087883641008</v>
+        <v>3986248.756114458</v>
       </c>
       <c r="I94">
-        <v>492.2651239886052</v>
+        <v>1116764.965671043</v>
       </c>
       <c r="J94">
-        <v>132.8618635697958</v>
+        <v>4841321.942467169</v>
       </c>
       <c r="K94">
-        <v>603.5710694074867</v>
+        <v>3984993.83154854</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,34 +3741,34 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.02428406879086</v>
+        <v>1116403.380837032</v>
       </c>
       <c r="G95">
-        <v>289.1291819253753</v>
+        <v>4841673.90359097</v>
       </c>
       <c r="H95">
-        <v>2325.420559707391</v>
+        <v>3986257.970437305</v>
       </c>
       <c r="I95">
-        <v>585.6732754912474</v>
+        <v>1116841.439883982</v>
       </c>
       <c r="J95">
-        <v>69.85315911920596</v>
+        <v>4841273.290918329</v>
       </c>
       <c r="K95">
-        <v>325.4689114077169</v>
+        <v>3984706.829727836</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,34 +3776,34 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.35750936437596</v>
+        <v>1116402.746506316</v>
       </c>
       <c r="G96">
-        <v>299.8598877576053</v>
+        <v>4841690.416425246</v>
       </c>
       <c r="H96">
-        <v>2336.415506622625</v>
+        <v>3986266.910160806</v>
       </c>
       <c r="I96">
-        <v>681.3815167907177</v>
+        <v>1116919.797204059</v>
       </c>
       <c r="J96">
-        <v>6.844454668616165</v>
+        <v>4841224.639369488</v>
       </c>
       <c r="K96">
-        <v>32.68783644461578</v>
+        <v>3984404.679244047</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,34 +3811,34 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>43.71949896345085</v>
+        <v>1116402.139540288</v>
       </c>
       <c r="G97">
-        <v>310.5905935898354</v>
+        <v>4841706.929259521</v>
       </c>
       <c r="H97">
-        <v>2347.092272797619</v>
+        <v>3986275.591179298</v>
       </c>
       <c r="I97">
-        <v>779.4464854822193</v>
+        <v>1117000.084001056</v>
       </c>
       <c r="J97">
-        <v>-56.16424978197333</v>
+        <v>4841175.987820648</v>
       </c>
       <c r="K97">
-        <v>-274.7721554818158</v>
+        <v>3984087.380097175</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,34 +3846,34 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.10824300340334</v>
+        <v>1116401.55802688</v>
       </c>
       <c r="G98">
-        <v>321.3212994220654</v>
+        <v>4841723.442093797</v>
       </c>
       <c r="H98">
-        <v>2357.468757023738</v>
+        <v>3986284.028045853</v>
       </c>
       <c r="I98">
-        <v>879.9262138096326</v>
+        <v>1117082.347786566</v>
       </c>
       <c r="J98">
-        <v>-119.1729542325631</v>
+        <v>4841127.336271808</v>
       </c>
       <c r="K98">
-        <v>-596.9110643715796</v>
+        <v>3983754.932287219</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,34 +3881,34 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.52192284590104</v>
+        <v>1116401.000235946</v>
       </c>
       <c r="G99">
-        <v>332.0520052542954</v>
+        <v>4841739.954928072</v>
       </c>
       <c r="H99">
-        <v>2367.561389013216</v>
+        <v>3986292.234119068</v>
       </c>
       <c r="I99">
-        <v>982.8801630074541</v>
+        <v>1117166.637242114</v>
       </c>
       <c r="J99">
-        <v>-182.1816586831529</v>
+        <v>4841078.684722967</v>
       </c>
       <c r="K99">
-        <v>-933.7288902246758</v>
+        <v>3983407.335814178</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,34 +3916,34 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>41.95888830870805</v>
+        <v>1116400.464597599</v>
       </c>
       <c r="G100">
-        <v>342.7827110865254</v>
+        <v>4841756.467762348</v>
       </c>
       <c r="H100">
-        <v>2377.385285897161</v>
+        <v>3986300.221690316</v>
       </c>
       <c r="I100">
-        <v>1088.369258488375</v>
+        <v>1117253.002247959</v>
       </c>
       <c r="J100">
-        <v>-245.1903631337427</v>
+        <v>4841030.033174126</v>
       </c>
       <c r="K100">
-        <v>-1285.225633041103</v>
+        <v>3983044.590678055</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,34 +3951,34 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.41763812479666</v>
+        <v>1116399.949683619</v>
       </c>
       <c r="G101">
-        <v>353.5134169187554</v>
+        <v>4841772.980596625</v>
       </c>
       <c r="H101">
-        <v>2386.954388423763</v>
+        <v>3986308.002094478</v>
       </c>
       <c r="I101">
-        <v>1196.455925897325</v>
+        <v>1117341.493912619</v>
       </c>
       <c r="J101">
-        <v>-308.1990675843319</v>
+        <v>4840981.381625286</v>
       </c>
       <c r="K101">
-        <v>-1651.401292820858</v>
+        <v>3982666.696878846</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,34 +3986,34 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>40.8968031018056</v>
+        <v>1116399.454191438</v>
       </c>
       <c r="G102">
-        <v>364.2441227509854</v>
+        <v>4841789.4934309</v>
       </c>
       <c r="H102">
-        <v>2396.281579936722</v>
+        <v>3986315.585806688</v>
       </c>
       <c r="I102">
-        <v>1307.204128053311</v>
+        <v>1117432.164603111</v>
       </c>
       <c r="J102">
-        <v>-371.2077720349217</v>
+        <v>4840932.730076446</v>
       </c>
       <c r="K102">
-        <v>-2032.255869563948</v>
+        <v>3982273.654416555</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,34 +4021,34 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.39513155172143</v>
+        <v>1116398.976930271</v>
       </c>
       <c r="G103">
-        <v>374.9748285832154</v>
+        <v>4841806.006265176</v>
       </c>
       <c r="H103">
-        <v>2405.37879068215</v>
+        <v>3986322.982527138</v>
       </c>
       <c r="I103">
-        <v>1420.67940280091</v>
+        <v>1117525.06797594</v>
       </c>
       <c r="J103">
-        <v>-434.2164764855115</v>
+        <v>4840884.078527606</v>
       </c>
       <c r="K103">
-        <v>-2427.789363270369</v>
+        <v>3981865.463291178</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,34 +4056,34 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>39.91147663780821</v>
+        <v>1116398.516809085</v>
       </c>
       <c r="G104">
-        <v>385.7055344154454</v>
+        <v>4841822.519099453</v>
       </c>
       <c r="H104">
-        <v>2414.257089562827</v>
+        <v>3986330.201255683</v>
       </c>
       <c r="I104">
-        <v>1536.948901793829</v>
+        <v>1117620.259008855</v>
       </c>
       <c r="J104">
-        <v>-497.2251809361013</v>
+        <v>4840835.426978766</v>
       </c>
       <c r="K104">
-        <v>-2838.001773940122</v>
+        <v>3981442.123502719</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,34 +4091,34 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.44478534764735</v>
+        <v>1116398.072826105</v>
       </c>
       <c r="G105">
-        <v>396.4362402476755</v>
+        <v>4841839.031933728</v>
       </c>
       <c r="H105">
-        <v>2422.926765110016</v>
+        <v>3986337.250357679</v>
       </c>
       <c r="I105">
-        <v>1656.081430233473</v>
+        <v>1117717.794033382</v>
       </c>
       <c r="J105">
-        <v>-560.2338853866911</v>
+        <v>4840786.775429926</v>
       </c>
       <c r="K105">
-        <v>-3262.893101573206</v>
+        <v>3981003.635051175</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,34 +4126,34 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>38.99408885098541</v>
+        <v>1116397.644059643</v>
       </c>
       <c r="G106">
-        <v>407.1669460799055</v>
+        <v>4841855.544768004</v>
       </c>
       <c r="H106">
-        <v>2431.397397158524</v>
+        <v>3986344.137622254</v>
       </c>
       <c r="I106">
-        <v>1778.147487586024</v>
+        <v>1117817.730768158</v>
       </c>
       <c r="J106">
-        <v>-623.2425898372803</v>
+        <v>4840738.123881086</v>
       </c>
       <c r="K106">
-        <v>-3702.463346169618</v>
+        <v>3980549.997936548</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,34 +4161,34 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.5584940414787</v>
+        <v>1116397.229660048</v>
       </c>
       <c r="G107">
-        <v>417.8976519121355</v>
+        <v>4841872.05760228</v>
       </c>
       <c r="H107">
-        <v>2439.677920477166</v>
+        <v>3986350.870314052</v>
       </c>
       <c r="I107">
-        <v>1903.21930930217</v>
+        <v>1117920.128353087</v>
       </c>
       <c r="J107">
-        <v>-686.2512942878701</v>
+        <v>4840689.472332245</v>
       </c>
       <c r="K107">
-        <v>-4156.712507729365</v>
+        <v>3980081.212158836</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4196,34 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G108">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H108">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I108">
-        <v>-1026.32397723522</v>
+        <v>1114862.193092855</v>
       </c>
       <c r="J108">
-        <v>1303.787375346582</v>
+        <v>4843220.476016172</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984372.030008852</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4231,34 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G109">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H109">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I109">
-        <v>-1006.061609093444</v>
+        <v>1114891.807111517</v>
       </c>
       <c r="J109">
-        <v>1272.071712080714</v>
+        <v>4843171.82445605</v>
       </c>
       <c r="K109">
-        <v>254.6199627696547</v>
+        <v>3984675.826131121</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4266,34 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G110">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H110">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I110">
-        <v>-985.3002987772132</v>
+        <v>1114922.150348144</v>
       </c>
       <c r="J110">
-        <v>1240.356048814845</v>
+        <v>4843123.172895927</v>
       </c>
       <c r="K110">
-        <v>496.5434070596051</v>
+        <v>3984964.473586184</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4301,34 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G111">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H111">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I111">
-        <v>-964.0277602945006</v>
+        <v>1114953.240759057</v>
       </c>
       <c r="J111">
-        <v>1208.640385548977</v>
+        <v>4843074.521335805</v>
       </c>
       <c r="K111">
-        <v>725.770332869853</v>
+        <v>3985237.972374037</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4336,34 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G112">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H112">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I112">
-        <v>-942.2314051220279</v>
+        <v>1114985.096742737</v>
       </c>
       <c r="J112">
-        <v>1176.924722283109</v>
+        <v>4843025.869775682</v>
       </c>
       <c r="K112">
-        <v>942.3007402003968</v>
+        <v>3985496.322494684</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4371,34 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G113">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H113">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I113">
-        <v>-919.8983347557117</v>
+        <v>1115017.737150708</v>
       </c>
       <c r="J113">
-        <v>1145.20905901724</v>
+        <v>4842977.21821556</v>
       </c>
       <c r="K113">
-        <v>1146.134629051238</v>
+        <v>3985739.523948123</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4406,34 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G114">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H114">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I114">
-        <v>-897.0153330776733</v>
+        <v>1115051.181298696</v>
       </c>
       <c r="J114">
-        <v>1113.493395751372</v>
+        <v>4842928.566655437</v>
       </c>
       <c r="K114">
-        <v>1337.271999422376</v>
+        <v>3985967.576734353</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4441,34 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G115">
-        <v>-97.0872027726984</v>
+        <v>4841127.233171326</v>
       </c>
       <c r="H115">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I115">
-        <v>-873.5688585352887</v>
+        <v>1115085.44897806</v>
       </c>
       <c r="J115">
-        <v>1081.777732485503</v>
+        <v>4842879.915095314</v>
       </c>
       <c r="K115">
-        <v>1515.712851313811</v>
+        <v>3986180.480853376</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4476,34 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>151.717201156085</v>
+        <v>1116578.83966906</v>
       </c>
       <c r="G116">
-        <v>-81.05537276995896</v>
+        <v>4841143.745999644</v>
       </c>
       <c r="H116">
-        <v>482.7304520786673</v>
+        <v>3985228.023148127</v>
       </c>
       <c r="I116">
-        <v>-849.5450361276589</v>
+        <v>1115120.560467503</v>
       </c>
       <c r="J116">
-        <v>1050.062069219635</v>
+        <v>4842831.263535192</v>
       </c>
       <c r="K116">
-        <v>1681.457184725542</v>
+        <v>3986378.236305192</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4511,34 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>117.7502468885258</v>
+        <v>1116530.15909065</v>
       </c>
       <c r="G117">
-        <v>-65.02354276721954</v>
+        <v>4841160.25882796</v>
       </c>
       <c r="H117">
-        <v>594.720668640762</v>
+        <v>3985427.277539643</v>
       </c>
       <c r="I117">
-        <v>-824.9296491947525</v>
+        <v>1115156.536545072</v>
       </c>
       <c r="J117">
-        <v>1018.346405953767</v>
+        <v>4842782.611975069</v>
       </c>
       <c r="K117">
-        <v>1834.504999657569</v>
+        <v>3986560.843089799</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4546,34 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>97.79636522270091</v>
+        <v>1116501.561692914</v>
       </c>
       <c r="G118">
-        <v>-48.99171276448013</v>
+        <v>4841176.771656278</v>
       </c>
       <c r="H118">
-        <v>661.4277690222565</v>
+        <v>3985545.963645485</v>
       </c>
       <c r="I118">
-        <v>-799.7081310043642</v>
+        <v>1115193.398500453</v>
       </c>
       <c r="J118">
-        <v>986.6307426878984</v>
+        <v>4842733.960414946</v>
       </c>
       <c r="K118">
-        <v>1974.856296109894</v>
+        <v>3986728.301207199</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4581,34 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>85.20001122440735</v>
+        <v>1116483.508917453</v>
       </c>
       <c r="G119">
-        <v>-32.95988276174069</v>
+        <v>4841193.284484595</v>
       </c>
       <c r="H119">
-        <v>709.0988251043548</v>
+        <v>3985630.780583643</v>
       </c>
       <c r="I119">
-        <v>-773.8655561319083</v>
+        <v>1115231.168147574</v>
       </c>
       <c r="J119">
-        <v>954.91507942203</v>
+        <v>4842685.308854824</v>
       </c>
       <c r="K119">
-        <v>2102.511074082516</v>
+        <v>3986880.61065739</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4616,34 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>76.41536507760013</v>
+        <v>1116470.918985127</v>
       </c>
       <c r="G120">
-        <v>-16.92805275900127</v>
+        <v>4841209.797312912</v>
       </c>
       <c r="H120">
-        <v>746.2202509356978</v>
+        <v>3985696.827487946</v>
       </c>
       <c r="I120">
-        <v>-747.3866316279515</v>
+        <v>1115269.867837507</v>
       </c>
       <c r="J120">
-        <v>923.1994161561615</v>
+        <v>4842636.657294702</v>
       </c>
       <c r="K120">
-        <v>2217.469333575434</v>
+        <v>3987017.771440375</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4651,34 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>69.86175598194536</v>
+        <v>1116461.526518586</v>
       </c>
       <c r="G121">
-        <v>-0.896222756261851</v>
+        <v>4841226.31014123</v>
       </c>
       <c r="H121">
-        <v>776.6255780918171</v>
+        <v>3985750.925025636</v>
       </c>
       <c r="I121">
-        <v>-720.2556879682487</v>
+        <v>1115309.520471702</v>
       </c>
       <c r="J121">
-        <v>891.4837528902932</v>
+        <v>4842588.005734579</v>
       </c>
       <c r="K121">
-        <v>2319.731074588648</v>
+        <v>3987139.783556151</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4686,34 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>64.73774885352125</v>
+        <v>1116454.18292137</v>
       </c>
       <c r="G122">
-        <v>15.13560724647758</v>
+        <v>4841242.822969547</v>
       </c>
       <c r="H122">
-        <v>802.3766707117411</v>
+        <v>3985796.74169113</v>
       </c>
       <c r="I122">
-        <v>-692.4566697809362</v>
+        <v>1115350.149515534</v>
       </c>
       <c r="J122">
-        <v>859.7680896244249</v>
+        <v>4842539.354174456</v>
       </c>
       <c r="K122">
-        <v>2409.29629712216</v>
+        <v>3987246.647004719</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4721,34 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>60.59205399543347</v>
+        <v>1116448.241416517</v>
       </c>
       <c r="G123">
-        <v>31.16743724921701</v>
+        <v>4841259.335797864</v>
       </c>
       <c r="H123">
-        <v>824.711053586615</v>
+        <v>3985836.479303988</v>
       </c>
       <c r="I123">
-        <v>-663.9731263453887</v>
+        <v>1115391.779012192</v>
       </c>
       <c r="J123">
-        <v>828.0524263585565</v>
+        <v>4842490.702614333</v>
       </c>
       <c r="K123">
-        <v>2486.165001175968</v>
+        <v>3987338.36178608</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4756,34 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>57.1496500693886</v>
+        <v>1116443.307850413</v>
       </c>
       <c r="G124">
-        <v>47.19926725195642</v>
+        <v>4841275.848626181</v>
       </c>
       <c r="H124">
-        <v>844.43010359534</v>
+        <v>3985871.563683957</v>
       </c>
       <c r="I124">
-        <v>-634.7882018571205</v>
+        <v>1115434.433596907</v>
       </c>
       <c r="J124">
-        <v>796.3367630926881</v>
+        <v>4842442.051054211</v>
       </c>
       <c r="K124">
-        <v>2550.337186750073</v>
+        <v>3987414.927900232</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4791,34 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>54.23247175077899</v>
+        <v>1116439.127024344</v>
       </c>
       <c r="G125">
-        <v>63.23109725469587</v>
+        <v>4841292.361454498</v>
       </c>
       <c r="H125">
-        <v>862.0826213954724</v>
+        <v>3985902.97126402</v>
       </c>
       <c r="I125">
-        <v>-604.8846254529666</v>
+        <v>1115478.138511529</v>
       </c>
       <c r="J125">
-        <v>764.6210998268197</v>
+        <v>4842393.399494088</v>
       </c>
       <c r="K125">
-        <v>2601.812853844474</v>
+        <v>3987476.345347177</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4826,34 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>51.71960723028214</v>
+        <v>1116435.525650569</v>
       </c>
       <c r="G126">
-        <v>79.26292725743528</v>
+        <v>4841308.874282815</v>
       </c>
       <c r="H126">
-        <v>878.0609536219274</v>
+        <v>3985931.400112208</v>
       </c>
       <c r="I126">
-        <v>-574.2447009906464</v>
+        <v>1115522.919619467</v>
       </c>
       <c r="J126">
-        <v>732.9054365609514</v>
+        <v>4842344.747933965</v>
       </c>
       <c r="K126">
-        <v>2640.592002459172</v>
+        <v>3987522.614126915</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4861,34 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>49.52574665982031</v>
+        <v>1116432.381465174</v>
       </c>
       <c r="G127">
-        <v>95.29475726017469</v>
+        <v>4841325.387111133</v>
       </c>
       <c r="H127">
-        <v>892.6553356704811</v>
+        <v>3985957.366618962</v>
       </c>
       <c r="I127">
-        <v>-542.8502965766553</v>
+        <v>1115568.803420989</v>
       </c>
       <c r="J127">
-        <v>701.189773295083</v>
+        <v>4842296.096373843</v>
       </c>
       <c r="K127">
-        <v>2666.674632594167</v>
+        <v>3987553.734239444</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4896,34 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>47.58877512797552</v>
+        <v>1116429.605446642</v>
       </c>
       <c r="G128">
-        <v>111.3265872629141</v>
+        <v>4841341.89993945</v>
       </c>
       <c r="H128">
-        <v>906.0865139333854</v>
+        <v>3985981.263539016</v>
       </c>
       <c r="I128">
-        <v>-510.6828338362919</v>
+        <v>1115615.817068911</v>
       </c>
       <c r="J128">
-        <v>669.4741100292147</v>
+        <v>4842247.444813721</v>
       </c>
       <c r="K128">
-        <v>2680.060744249459</v>
+        <v>3987569.705684766</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4931,34 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>45.86226151173859</v>
+        <v>1116427.131051063</v>
       </c>
       <c r="G129">
-        <v>127.3584172656536</v>
+        <v>4841358.412767768</v>
       </c>
       <c r="H129">
-        <v>918.5262985674535</v>
+        <v>3986003.396559149</v>
       </c>
       <c r="I129">
-        <v>-477.7232769194702</v>
+        <v>1115663.988384662</v>
       </c>
       <c r="J129">
-        <v>637.7584467633462</v>
+        <v>4842198.793253598</v>
       </c>
       <c r="K129">
-        <v>2680.750337425047</v>
+        <v>3987570.528462879</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4966,34 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>44.310716360982</v>
+        <v>1116424.907415856</v>
       </c>
       <c r="G130">
-        <v>143.390247268393</v>
+        <v>4841374.925596085</v>
       </c>
       <c r="H130">
-        <v>930.111038055279</v>
+        <v>3986024.008272282</v>
       </c>
       <c r="I130">
-        <v>-443.9521212358082</v>
+        <v>1115713.345874746</v>
       </c>
       <c r="J130">
-        <v>606.0427834974779</v>
+        <v>4842150.141693475</v>
       </c>
       <c r="K130">
-        <v>2668.743412120932</v>
+        <v>3987556.202573785</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +5001,34 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>42.90648974746186</v>
+        <v>1116422.894913845</v>
       </c>
       <c r="G131">
-        <v>159.4220772711324</v>
+        <v>4841391.438424402</v>
       </c>
       <c r="H131">
-        <v>940.9507532056156</v>
+        <v>3986043.294428812</v>
       </c>
       <c r="I131">
-        <v>-409.3493819123292</v>
+        <v>1115763.918747615</v>
       </c>
       <c r="J131">
-        <v>574.3271202316096</v>
+        <v>4842101.490133353</v>
       </c>
       <c r="K131">
-        <v>2644.039968337114</v>
+        <v>3987526.728017483</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5036,34 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>41.62767921656278</v>
+        <v>1116421.062154987</v>
       </c>
       <c r="G132">
-        <v>175.4539072738719</v>
+        <v>4841407.951252719</v>
       </c>
       <c r="H132">
-        <v>951.1355073827948</v>
+        <v>3986061.415270602</v>
       </c>
       <c r="I132">
-        <v>-373.8945819669463</v>
+        <v>1115815.736930953</v>
       </c>
       <c r="J132">
-        <v>542.6114569657411</v>
+        <v>4842052.83857323</v>
       </c>
       <c r="K132">
-        <v>2606.640006073592</v>
+        <v>3987482.104793973</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5071,34 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>40.45668124509096</v>
+        <v>1116419.383910358</v>
       </c>
       <c r="G133">
-        <v>191.4857372766112</v>
+        <v>4841424.464081036</v>
       </c>
       <c r="H133">
-        <v>960.7399594718335</v>
+        <v>3986078.50363167</v>
       </c>
       <c r="I133">
-        <v>-337.5667401907262</v>
+        <v>1115868.831089383</v>
       </c>
       <c r="J133">
-        <v>510.8957936998727</v>
+        <v>4842004.187013107</v>
       </c>
       <c r="K133">
-        <v>2556.543525330368</v>
+        <v>3987422.332903256</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5106,34 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>39.37916486837159</v>
+        <v>1116417.839641182</v>
       </c>
       <c r="G134">
-        <v>207.5175672793507</v>
+        <v>4841440.976909353</v>
       </c>
       <c r="H134">
-        <v>969.8266882457065</v>
+        <v>3986094.670852954</v>
       </c>
       <c r="I134">
-        <v>-300.3443587317685</v>
+        <v>1115923.23264262</v>
       </c>
       <c r="J134">
-        <v>479.1801304340044</v>
+        <v>4841955.535452984</v>
       </c>
       <c r="K134">
-        <v>2493.750526107439</v>
+        <v>3987347.412345331</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5141,34 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>38.38332949663972</v>
+        <v>1116416.412435153</v>
       </c>
       <c r="G135">
-        <v>223.5493972820901</v>
+        <v>4841457.489737672</v>
       </c>
       <c r="H135">
-        <v>978.4486656832117</v>
+        <v>3986110.011182857</v>
       </c>
       <c r="I135">
-        <v>-262.2054103733465</v>
+        <v>1115978.973784056</v>
       </c>
       <c r="J135">
-        <v>447.464467168136</v>
+        <v>4841906.883892862</v>
       </c>
       <c r="K135">
-        <v>2418.261008404808</v>
+        <v>3987257.343120198</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5176,34 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>37.45935844698499</v>
+        <v>1116415.088223251</v>
       </c>
       <c r="G136">
-        <v>239.5812272848295</v>
+        <v>4841474.002565988</v>
       </c>
       <c r="H136">
-        <v>986.6511279979238</v>
+        <v>3986124.605106215</v>
       </c>
       <c r="I136">
-        <v>-223.1273254987876</v>
+        <v>1116036.087499819</v>
       </c>
       <c r="J136">
-        <v>415.7488039022676</v>
+        <v>4841858.23233274</v>
       </c>
       <c r="K136">
-        <v>2330.074972222473</v>
+        <v>3987152.125227857</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5211,34 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>36.59901002513424</v>
+        <v>1116413.855193687</v>
       </c>
       <c r="G137">
-        <v>255.613057287569</v>
+        <v>4841490.515394306</v>
       </c>
       <c r="H137">
-        <v>994.4730122339506</v>
+        <v>3986138.521900305</v>
       </c>
       <c r="I137">
-        <v>-183.0869787353717</v>
+        <v>1116094.607588289</v>
       </c>
       <c r="J137">
-        <v>384.0331406363993</v>
+        <v>4841809.580772617</v>
       </c>
       <c r="K137">
-        <v>2229.192417560435</v>
+        <v>3987031.758668308</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5246,34 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>35.79530705366312</v>
+        <v>1116412.703346948</v>
       </c>
       <c r="G138">
-        <v>271.6448872903084</v>
+        <v>4841507.028222623</v>
       </c>
       <c r="H138">
-        <v>1001.948074120719</v>
+        <v>3986151.821623741</v>
       </c>
       <c r="I138">
-        <v>-142.0606752693502</v>
+        <v>1116154.5686801</v>
       </c>
       <c r="J138">
-        <v>352.3174773705309</v>
+        <v>4841760.929212494</v>
       </c>
       <c r="K138">
-        <v>2115.613344418693</v>
+        <v>3986896.243441551</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5281,34 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>35.04229802570259</v>
+        <v>1116411.624153484</v>
       </c>
       <c r="G139">
-        <v>287.6767172930478</v>
+        <v>4841523.54105094</v>
       </c>
       <c r="H139">
-        <v>1009.105768456959</v>
+        <v>3986164.556682868</v>
       </c>
       <c r="I139">
-        <v>-100.0241368239849</v>
+        <v>1116216.006258634</v>
       </c>
       <c r="J139">
-        <v>320.6018141046626</v>
+        <v>4841712.277652372</v>
       </c>
       <c r="K139">
-        <v>1989.337752797249</v>
+        <v>3986745.579547587</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5316,34 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>34.33487115126319</v>
+        <v>1116410.610287208</v>
       </c>
       <c r="G140">
-        <v>303.7085472957872</v>
+        <v>4841540.053879257</v>
       </c>
       <c r="H140">
-        <v>1015.971950101075</v>
+        <v>3986176.773078974</v>
       </c>
       <c r="I140">
-        <v>-56.95248729230856</v>
+        <v>1116278.956681017</v>
       </c>
       <c r="J140">
-        <v>288.8861508387942</v>
+        <v>4841663.62609225</v>
       </c>
       <c r="K140">
-        <v>1850.365642696101</v>
+        <v>3986579.766986415</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5351,34 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>33.66860799525651</v>
+        <v>1116409.655415731</v>
       </c>
       <c r="G141">
-        <v>319.7403772985267</v>
+        <v>4841556.566707574</v>
       </c>
       <c r="H141">
-        <v>1022.56943772109</v>
+        <v>3986188.511411318</v>
       </c>
       <c r="I141">
-        <v>-12.82023801610592</v>
+        <v>1116343.457199639</v>
       </c>
       <c r="J141">
-        <v>257.1704875729258</v>
+        <v>4841614.974532126</v>
       </c>
       <c r="K141">
-        <v>1698.69701411525</v>
+        <v>3986398.805758035</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5386,34 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>33.03966712032376</v>
+        <v>1116408.754033601</v>
       </c>
       <c r="G142">
-        <v>335.7722073012661</v>
+        <v>4841573.079535892</v>
       </c>
       <c r="H142">
-        <v>1028.918471335729</v>
+        <v>3986199.807691194</v>
       </c>
       <c r="I142">
-        <v>32.39872729759848</v>
+        <v>1116409.545984192</v>
       </c>
       <c r="J142">
-        <v>225.4548243070575</v>
+        <v>4841566.322972003</v>
       </c>
       <c r="K142">
-        <v>1534.331867054696</v>
+        <v>3986202.695862447</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5421,34 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>32.44469072891682</v>
+        <v>1116407.901328508</v>
       </c>
       <c r="G143">
-        <v>351.8040373040055</v>
+        <v>4841589.59236421</v>
       </c>
       <c r="H143">
-        <v>1035.03708678862</v>
+        <v>3986210.694008199</v>
       </c>
       <c r="I143">
-        <v>78.7311680314675</v>
+        <v>1116477.262144264</v>
       </c>
       <c r="J143">
-        <v>193.739161041189</v>
+        <v>4841517.671411881</v>
       </c>
       <c r="K143">
-        <v>1357.270201514438</v>
+        <v>3985991.437299652</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5456,34 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>31.88072912027189</v>
+        <v>1116407.093073017</v>
       </c>
       <c r="G144">
-        <v>367.8358673067449</v>
+        <v>4841606.105192526</v>
       </c>
       <c r="H144">
-        <v>1040.941424620345</v>
+        <v>3986221.199079785</v>
       </c>
       <c r="I144">
-        <v>126.2045024933446</v>
+        <v>1116546.64575248</v>
       </c>
       <c r="J144">
-        <v>162.0234977753207</v>
+        <v>4841469.019851759</v>
       </c>
       <c r="K144">
-        <v>1167.512017494477</v>
+        <v>3985765.030069648</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5491,34 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>31.34517908069938</v>
+        <v>1116406.325536267</v>
       </c>
       <c r="G145">
-        <v>383.8676973094844</v>
+        <v>4841622.618020844</v>
       </c>
       <c r="H145">
-        <v>1046.64598666374</v>
+        <v>3986231.348707795</v>
       </c>
       <c r="I145">
-        <v>174.846824141678</v>
+        <v>1116617.737868217</v>
       </c>
       <c r="J145">
-        <v>130.3078345094523</v>
+        <v>4841420.368291636</v>
       </c>
       <c r="K145">
-        <v>965.0573149948121</v>
+        <v>3985523.474172437</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5526,34 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>30.83573326950979</v>
+        <v>1116405.595411435</v>
       </c>
       <c r="G146">
-        <v>399.8995273122238</v>
+        <v>4841639.130849161</v>
       </c>
       <c r="H146">
-        <v>1052.163850633183</v>
+        <v>3986241.16616026</v>
       </c>
       <c r="I146">
-        <v>224.6869182104868</v>
+        <v>1116690.580561901</v>
       </c>
       <c r="J146">
-        <v>98.59217124358389</v>
+        <v>4841371.716731514</v>
       </c>
       <c r="K146">
-        <v>749.9060940154444</v>
+        <v>3985266.769608018</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5561,34 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>30.35033835490136</v>
+        <v>1116404.89975574</v>
       </c>
       <c r="G147">
-        <v>415.9313573149632</v>
+        <v>4841655.643677478</v>
       </c>
       <c r="H147">
-        <v>1057.506850698848</v>
+        <v>3986250.672492685</v>
       </c>
       <c r="I147">
-        <v>275.7542787436934</v>
+        <v>1116765.216939902</v>
       </c>
       <c r="J147">
-        <v>66.87650797771562</v>
+        <v>4841323.065171391</v>
       </c>
       <c r="K147">
-        <v>522.0583545563737</v>
+        <v>3984994.916376391</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5596,34 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>29.88716016707601</v>
+        <v>1116404.235940494</v>
       </c>
       <c r="G148">
-        <v>431.9631873177026</v>
+        <v>4841672.156505795</v>
       </c>
       <c r="H148">
-        <v>1062.685730317756</v>
+        <v>3986259.886819961</v>
       </c>
       <c r="I148">
-        <v>328.0791260489211</v>
+        <v>1116841.691170047</v>
       </c>
       <c r="J148">
-        <v>35.16084471184719</v>
+        <v>4841274.413611269</v>
       </c>
       <c r="K148">
-        <v>281.5140966175991</v>
+        <v>3984707.914477557</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5631,34 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>29.44455451995999</v>
+        <v>1116403.601609292</v>
       </c>
       <c r="G149">
-        <v>447.9950173204421</v>
+        <v>4841688.669334113</v>
       </c>
       <c r="H149">
-        <v>1067.710272284432</v>
+        <v>3986268.826547761</v>
       </c>
       <c r="I149">
-        <v>381.6924245810627</v>
+        <v>1116920.048507755</v>
       </c>
       <c r="J149">
-        <v>3.445181445978762</v>
+        <v>4841225.762051146</v>
       </c>
       <c r="K149">
-        <v>28.27332019912137</v>
+        <v>3984405.763911515</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5666,34 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>29.02104264331192</v>
+        <v>1116402.994642799</v>
       </c>
       <c r="G150">
-        <v>464.0268473231815</v>
+        <v>4841705.18216243</v>
       </c>
       <c r="H150">
-        <v>1072.58940995815</v>
+        <v>3986277.507570426</v>
       </c>
       <c r="I150">
-        <v>436.6259012662276</v>
+        <v>1117000.335322816</v>
       </c>
       <c r="J150">
-        <v>-28.27048181988952</v>
+        <v>4841177.110491023</v>
       </c>
       <c r="K150">
-        <v>-237.6639746990589</v>
+        <v>3984088.464678265</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5701,34 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>28.61529038852631</v>
+        <v>1116402.413128946</v>
       </c>
       <c r="G151">
-        <v>480.0586773259209</v>
+        <v>4841721.694990748</v>
       </c>
       <c r="H151">
-        <v>1077.331322844373</v>
+        <v>3986285.944441036</v>
       </c>
       <c r="I151">
-        <v>492.9120642768932</v>
+        <v>1117082.599126835</v>
       </c>
       <c r="J151">
-        <v>-59.98614508575795</v>
+        <v>4841128.4589309</v>
       </c>
       <c r="K151">
-        <v>-516.2977880769433</v>
+        <v>3983756.016777807</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5736,34 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>28.22609054184617</v>
+        <v>1116401.855337585</v>
       </c>
       <c r="G152">
-        <v>496.0905073286604</v>
+        <v>4841738.207819064</v>
       </c>
       <c r="H152">
-        <v>1081.94351909928</v>
+        <v>3986294.150518197</v>
       </c>
       <c r="I152">
-        <v>550.5842222693763</v>
+        <v>1117166.888601348</v>
       </c>
       <c r="J152">
-        <v>-91.70180835162637</v>
+        <v>4841079.807370777</v>
       </c>
       <c r="K152">
-        <v>-807.6281199345316</v>
+        <v>3983408.420210141</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5771,34 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>27.85234771082253</v>
+        <v>1116401.319698827</v>
       </c>
       <c r="G153">
-        <v>512.1223373313998</v>
+        <v>4841754.720647382</v>
       </c>
       <c r="H153">
-        <v>1086.432907047237</v>
+        <v>3986302.138093284</v>
       </c>
       <c r="I153">
-        <v>609.6765040950118</v>
+        <v>1117253.253626625</v>
       </c>
       <c r="J153">
-        <v>-123.4174716174948</v>
+        <v>4841031.155810655</v>
       </c>
       <c r="K153">
-        <v>-1111.654970271823</v>
+        <v>3983045.674975268</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5806,34 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>27.49306535305525</v>
+        <v>1116400.804784453</v>
       </c>
       <c r="G154">
-        <v>528.1541673341392</v>
+        <v>4841771.233475699</v>
       </c>
       <c r="H154">
-        <v>1090.805857421532</v>
+        <v>3986309.918501187</v>
       </c>
       <c r="I154">
-        <v>670.2238789967007</v>
+        <v>1117341.745311195</v>
       </c>
       <c r="J154">
-        <v>-155.1331348833629</v>
+        <v>4840982.504250533</v>
       </c>
       <c r="K154">
-        <v>-1428.378339088815</v>
+        <v>3982667.781073186</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5841,34 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>27.14733459742628</v>
+        <v>1116400.309291892</v>
       </c>
       <c r="G155">
-        <v>544.1859973368787</v>
+        <v>4841787.746304016</v>
       </c>
       <c r="H155">
-        <v>1095.068257735912</v>
+        <v>3986317.502217042</v>
       </c>
       <c r="I155">
-        <v>732.2621773027809</v>
+        <v>1117432.416022087</v>
       </c>
       <c r="J155">
-        <v>-186.8487981492314</v>
+        <v>4840933.85269041</v>
       </c>
       <c r="K155">
-        <v>-1757.798226385512</v>
+        <v>3982274.738503897</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5876,34 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>26.8143245723091</v>
+        <v>1116399.83203036</v>
       </c>
       <c r="G156">
-        <v>560.2178273396181</v>
+        <v>4841804.259132333</v>
       </c>
       <c r="H156">
-        <v>1099.225559951421</v>
+        <v>3986324.898941049</v>
       </c>
       <c r="I156">
-        <v>795.8281116304599</v>
+        <v>1117525.319415819</v>
       </c>
       <c r="J156">
-        <v>-218.5644614150998</v>
+        <v>4840885.201130287</v>
       </c>
       <c r="K156">
-        <v>-2099.914632161914</v>
+        <v>3981866.5472674</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5911,34 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>26.4932740064493</v>
+        <v>1116399.371908822</v>
       </c>
       <c r="G157">
-        <v>576.2496573423574</v>
+        <v>4841820.771960652</v>
       </c>
       <c r="H157">
-        <v>1103.282822406853</v>
+        <v>3986332.117673065</v>
       </c>
       <c r="I157">
-        <v>860.9592986113709</v>
+        <v>1117620.510470153</v>
       </c>
       <c r="J157">
-        <v>-250.2801246809682</v>
+        <v>4840836.549570165</v>
       </c>
       <c r="K157">
-        <v>-2454.727556418018</v>
+        <v>3981443.207363695</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5946,34 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>26.1834839092585</v>
+        <v>1116398.927925502</v>
       </c>
       <c r="G158">
-        <v>592.2814873450969</v>
+        <v>4841837.284788968</v>
       </c>
       <c r="H158">
-        <v>1107.244746821782</v>
+        <v>3986339.166778449</v>
       </c>
       <c r="I158">
-        <v>927.694281152094</v>
+        <v>1117718.045516625</v>
       </c>
       <c r="J158">
-        <v>-281.9957879468366</v>
+        <v>4840787.898010042</v>
       </c>
       <c r="K158">
-        <v>-2822.236999153825</v>
+        <v>3981004.718792782</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5981,34 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>25.88431117034509</v>
+        <v>1116398.499158712</v>
       </c>
       <c r="G159">
-        <v>608.3133173478363</v>
+        <v>4841853.797617286</v>
       </c>
       <c r="H159">
-        <v>1111.115711051089</v>
+        <v>3986346.054046335</v>
       </c>
       <c r="I159">
-        <v>996.0725512428229</v>
+        <v>1117817.982273886</v>
       </c>
       <c r="J159">
-        <v>-313.7114512127048</v>
+        <v>4840739.246449919</v>
       </c>
       <c r="K159">
-        <v>-3202.442960369334</v>
+        <v>3980551.081554662</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,34 +6016,34 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>25.59516294491672</v>
+        <v>1116398.084758799</v>
       </c>
       <c r="G160">
-        <v>624.3451473505758</v>
+        <v>4841870.310445603</v>
       </c>
       <c r="H160">
-        <v>1114.899798163224</v>
+        <v>3986352.786741369</v>
       </c>
       <c r="I160">
-        <v>1066.134573327682</v>
+        <v>1117920.379881854</v>
       </c>
       <c r="J160">
-        <v>-345.4271144785732</v>
+        <v>4840690.594889796</v>
       </c>
       <c r="K160">
-        <v>-3595.345440064548</v>
+        <v>3980082.295649334</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6051,34 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G161">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H161">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I161">
-        <v>-1851.611291016833</v>
+        <v>1114860.397765588</v>
       </c>
       <c r="J161">
-        <v>2434.23348292179</v>
+        <v>4843222.831435402</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984365.573892382</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6086,34 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G162">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H162">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I162">
-        <v>-1815.055553777681</v>
+        <v>1114890.011736561</v>
       </c>
       <c r="J162">
-        <v>2375.018820381952</v>
+        <v>4843174.179851619</v>
       </c>
       <c r="K162">
-        <v>282.4994432529919</v>
+        <v>3984669.369522392</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6121,34 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G163">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H163">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I163">
-        <v>-1777.599665139676</v>
+        <v>1114920.354924324</v>
       </c>
       <c r="J163">
-        <v>2315.804157842114</v>
+        <v>4843125.528267834</v>
       </c>
       <c r="K163">
-        <v>550.9121693344297</v>
+        <v>3984958.016509742</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6156,34 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G164">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H164">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I164">
-        <v>-1739.221459702745</v>
+        <v>1114951.445285171</v>
       </c>
       <c r="J164">
-        <v>2256.589495302275</v>
+        <v>4843076.876684051</v>
       </c>
       <c r="K164">
-        <v>805.2381782443151</v>
+        <v>3985231.51485443</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6191,34 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G165">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H165">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I165">
-        <v>-1699.898226264232</v>
+        <v>1114983.301217551</v>
       </c>
       <c r="J165">
-        <v>2197.374832762437</v>
+        <v>4843028.225100268</v>
       </c>
       <c r="K165">
-        <v>1045.477469982647</v>
+        <v>3985489.864556456</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6226,34 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G166">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H166">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I166">
-        <v>-1659.606694379007</v>
+        <v>1115015.941572959</v>
       </c>
       <c r="J166">
-        <v>2138.160170222598</v>
+        <v>4842979.573516484</v>
       </c>
       <c r="K166">
-        <v>1271.630044549426</v>
+        <v>3985733.065615821</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6261,34 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G167">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H167">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I167">
-        <v>-1618.323020588637</v>
+        <v>1115049.38566709</v>
       </c>
       <c r="J167">
-        <v>2078.94550768276</v>
+        <v>4842930.9219327</v>
       </c>
       <c r="K167">
-        <v>1483.695901944652</v>
+        <v>3985961.118032524</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6296,34 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G168">
-        <v>-99.35619843926492</v>
+        <v>4841126.530792987</v>
       </c>
       <c r="H168">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I168">
-        <v>-1576.022774311464</v>
+        <v>1115083.653291271</v>
       </c>
       <c r="J168">
-        <v>2019.730845142922</v>
+        <v>4842882.270348917</v>
       </c>
       <c r="K168">
-        <v>1681.675042168325</v>
+        <v>3986174.021806566</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6331,34 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>333.4131598016544</v>
+        <v>1116578.383815286</v>
       </c>
       <c r="G169">
-        <v>-82.94969338394918</v>
+        <v>4841143.043618909</v>
       </c>
       <c r="H169">
-        <v>671.234828228885</v>
+        <v>3985233.686059983</v>
       </c>
       <c r="I169">
-        <v>-1532.680923385228</v>
+        <v>1115118.764724172</v>
       </c>
       <c r="J169">
-        <v>1960.516182603083</v>
+        <v>4842833.618765133</v>
       </c>
       <c r="K169">
-        <v>1865.567465220445</v>
+        <v>3986371.776937946</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6366,34 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>258.7675068045751</v>
+        <v>1116529.70325675</v>
       </c>
       <c r="G170">
-        <v>-66.54318832863345</v>
+        <v>4841159.556444829</v>
       </c>
       <c r="H170">
-        <v>826.9567916013616</v>
+        <v>3985432.940734633</v>
       </c>
       <c r="I170">
-        <v>-1488.271819253705</v>
+        <v>1115154.740743806</v>
       </c>
       <c r="J170">
-        <v>1901.301520063245</v>
+        <v>4842784.96718135</v>
       </c>
       <c r="K170">
-        <v>2035.373171101011</v>
+        <v>3986554.383426665</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6401,34 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>214.9169302989714</v>
+        <v>1116501.10587069</v>
       </c>
       <c r="G171">
-        <v>-50.13668327331774</v>
+        <v>4841176.069270751</v>
       </c>
       <c r="H171">
-        <v>919.7127569095593</v>
+        <v>3985551.627009126</v>
       </c>
       <c r="I171">
-        <v>-1442.76918178857</v>
+        <v>1115191.602639827</v>
       </c>
       <c r="J171">
-        <v>1842.086857523407</v>
+        <v>4842736.315597567</v>
       </c>
       <c r="K171">
-        <v>2191.092159810025</v>
+        <v>3986721.841272722</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6436,34 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>187.235229367575</v>
+        <v>1116483.053102599</v>
       </c>
       <c r="G172">
-        <v>-33.730178218002</v>
+        <v>4841192.582096674</v>
       </c>
       <c r="H172">
-        <v>985.9991761792975</v>
+        <v>3985636.444067807</v>
       </c>
       <c r="I172">
-        <v>-1396.146083737514</v>
+        <v>1115229.372226125</v>
       </c>
       <c r="J172">
-        <v>1782.872194983568</v>
+        <v>4842687.664013783</v>
       </c>
       <c r="K172">
-        <v>2332.724431347486</v>
+        <v>3986874.150476117</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6471,34 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>167.9301235046399</v>
+        <v>1116470.463175413</v>
       </c>
       <c r="G173">
-        <v>-17.32367316268627</v>
+        <v>4841209.094922594</v>
       </c>
       <c r="H173">
-        <v>1037.616375351668</v>
+        <v>3985702.491065961</v>
       </c>
       <c r="I173">
-        <v>-1348.374934789416</v>
+        <v>1115268.071853737</v>
       </c>
       <c r="J173">
-        <v>1723.65753244373</v>
+        <v>4842639.01243</v>
       </c>
       <c r="K173">
-        <v>2460.269985713393</v>
+        <v>3987011.311036852</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6506,34 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>153.5279364089319</v>
+        <v>1116461.070712706</v>
       </c>
       <c r="G174">
-        <v>-0.9171681073705583</v>
+        <v>4841225.607748516</v>
       </c>
       <c r="H174">
-        <v>1079.894865268759</v>
+        <v>3985756.588680523</v>
       </c>
       <c r="I174">
-        <v>-1299.427465247121</v>
+        <v>1115307.724424077</v>
       </c>
       <c r="J174">
-        <v>1664.442869903892</v>
+        <v>4842590.360846217</v>
       </c>
       <c r="K174">
-        <v>2573.728822907747</v>
+        <v>3987133.322954924</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6541,34 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>142.2674373058902</v>
+        <v>1116453.727118488</v>
       </c>
       <c r="G175">
-        <v>15.48933694794517</v>
+        <v>4841242.120574437</v>
       </c>
       <c r="H175">
-        <v>1115.701660048351</v>
+        <v>3985802.405411121</v>
       </c>
       <c r="I175">
-        <v>-1249.274709298194</v>
+        <v>1115348.353402482</v>
       </c>
       <c r="J175">
-        <v>1605.228207364053</v>
+        <v>4842541.709262433</v>
       </c>
       <c r="K175">
-        <v>2673.100942930548</v>
+        <v>3987240.186230336</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6576,34 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>133.1568736277052</v>
+        <v>1116447.785616061</v>
       </c>
       <c r="G176">
-        <v>31.8958420032609</v>
+        <v>4841258.633400358</v>
       </c>
       <c r="H176">
-        <v>1146.757533130439</v>
+        <v>3985842.143080445</v>
       </c>
       <c r="I176">
-        <v>-1197.886987873714</v>
+        <v>1115389.982832102</v>
       </c>
       <c r="J176">
-        <v>1546.013544824215</v>
+        <v>4842493.057678649</v>
       </c>
       <c r="K176">
-        <v>2758.386345781796</v>
+        <v>3987331.900863085</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6611,34 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>125.591859499113</v>
+        <v>1116442.852051971</v>
       </c>
       <c r="G177">
-        <v>48.30234705857661</v>
+        <v>4841275.14622628</v>
       </c>
       <c r="H177">
-        <v>1174.176795968423</v>
+        <v>3985877.227510268</v>
       </c>
       <c r="I177">
-        <v>-1145.233891084993</v>
+        <v>1115432.637348128</v>
       </c>
       <c r="J177">
-        <v>1486.798882284376</v>
+        <v>4842444.406094866</v>
       </c>
       <c r="K177">
-        <v>2829.585031461492</v>
+        <v>3987408.466853173</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6646,34 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>119.1810792217213</v>
+        <v>1116438.671227609</v>
       </c>
       <c r="G178">
-        <v>64.70885211389236</v>
+        <v>4841291.659052202</v>
       </c>
       <c r="H178">
-        <v>1198.722553755935</v>
+        <v>3985908.635134961</v>
       </c>
       <c r="I178">
-        <v>-1091.28426022781</v>
+        <v>1115476.34219237</v>
       </c>
       <c r="J178">
-        <v>1427.584219744538</v>
+        <v>4842395.754511083</v>
       </c>
       <c r="K178">
-        <v>2886.696999969633</v>
+        <v>3987469.8842006</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6681,34 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>113.6588174508204</v>
+        <v>1116435.069855304</v>
       </c>
       <c r="G179">
-        <v>81.11535716920808</v>
+        <v>4841308.171878123</v>
       </c>
       <c r="H179">
-        <v>1220.940362972704</v>
+        <v>3985937.064023545</v>
       </c>
       <c r="I179">
-        <v>-1036.00616934352</v>
+        <v>1115521.123228193</v>
       </c>
       <c r="J179">
-        <v>1368.3695572047</v>
+        <v>4842347.102927298</v>
       </c>
       <c r="K179">
-        <v>2929.722251306222</v>
+        <v>3987516.152905365</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6716,34 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>108.8375975799805</v>
+        <v>1116431.925671193</v>
       </c>
       <c r="G180">
-        <v>97.52186222452379</v>
+        <v>4841324.684704045</v>
       </c>
       <c r="H180">
-        <v>1241.233794815018</v>
+        <v>3985963.030567196</v>
       </c>
       <c r="I180">
-        <v>-979.366906326115</v>
+        <v>1115567.006955826</v>
       </c>
       <c r="J180">
-        <v>1309.154894664861</v>
+        <v>4842298.451343515</v>
       </c>
       <c r="K180">
-        <v>2958.660785471258</v>
+        <v>3987547.272967468</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6751,34 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>104.5809161097376</v>
+        <v>1116429.149653794</v>
       </c>
       <c r="G181">
-        <v>113.9283672798395</v>
+        <v>4841341.197529966</v>
       </c>
       <c r="H181">
-        <v>1259.909796288284</v>
+        <v>3985986.927521207</v>
       </c>
       <c r="I181">
-        <v>-921.3329535640727</v>
+        <v>1115614.020528039</v>
       </c>
       <c r="J181">
-        <v>1249.940232125023</v>
+        <v>4842249.799759733</v>
       </c>
       <c r="K181">
-        <v>2973.512602464741</v>
+        <v>3987563.24438691</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6786,34 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>100.7867361759941</v>
+        <v>1116426.675259225</v>
       </c>
       <c r="G182">
-        <v>130.3348723351552</v>
+        <v>4841357.710355888</v>
       </c>
       <c r="H182">
-        <v>1277.207268751638</v>
+        <v>3986009.060572791</v>
       </c>
       <c r="I182">
-        <v>-861.8699681055226</v>
+        <v>1115662.191766217</v>
       </c>
       <c r="J182">
-        <v>1190.725569585185</v>
+        <v>4842201.148175949</v>
       </c>
       <c r="K182">
-        <v>2974.27770228667</v>
+        <v>3987564.067163691</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6821,34 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>97.37706629448546</v>
+        <v>1116424.451624926</v>
       </c>
       <c r="G183">
-        <v>146.741377390471</v>
+        <v>4841374.223181809</v>
       </c>
       <c r="H183">
-        <v>1293.315804243242</v>
+        <v>3986029.672315213</v>
       </c>
       <c r="I183">
-        <v>-800.9427613349997</v>
+        <v>1115711.549176818</v>
       </c>
       <c r="J183">
-        <v>1131.510907045346</v>
+        <v>4842152.496592165</v>
       </c>
       <c r="K183">
-        <v>2960.956084937046</v>
+        <v>3987549.74129781</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6856,34 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>94.29114308522682</v>
+        <v>1116422.439123737</v>
       </c>
       <c r="G184">
-        <v>163.1478824457867</v>
+        <v>4841390.73600773</v>
       </c>
       <c r="H184">
-        <v>1308.38838627252</v>
+        <v>3986048.958499148</v>
       </c>
       <c r="I184">
-        <v>-738.5152781497544</v>
+        <v>1115762.121968247</v>
       </c>
       <c r="J184">
-        <v>1072.296244505508</v>
+        <v>4842103.845008382</v>
       </c>
       <c r="K184">
-        <v>2933.54775041587</v>
+        <v>3987520.266789267</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6891,34 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>91.48083379500964</v>
+        <v>1116420.606365627</v>
       </c>
       <c r="G185">
-        <v>179.5543875011025</v>
+        <v>4841407.248833653</v>
       </c>
       <c r="H185">
-        <v>1322.550247599549</v>
+        <v>3986067.079366687</v>
       </c>
       <c r="I185">
-        <v>-674.5505756233042</v>
+        <v>1115813.940068139</v>
       </c>
       <c r="J185">
-        <v>1013.081581965669</v>
+        <v>4842055.193424598</v>
       </c>
       <c r="K185">
-        <v>2892.05269872314</v>
+        <v>3987475.643638063</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6926,34 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>88.90745298640852</v>
+        <v>1116418.928121683</v>
       </c>
       <c r="G186">
-        <v>195.9608925564181</v>
+        <v>4841423.761659573</v>
       </c>
       <c r="H186">
-        <v>1335.905201115446</v>
+        <v>3986084.167752038</v>
       </c>
       <c r="I186">
-        <v>-609.0108011435875</v>
+        <v>1115867.034141069</v>
       </c>
       <c r="J186">
-        <v>953.8669194258308</v>
+        <v>4842006.541840814</v>
       </c>
       <c r="K186">
-        <v>2836.470929858857</v>
+        <v>3987415.871844198</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6961,34 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>86.53950698448855</v>
+        <v>1116417.383853138</v>
       </c>
       <c r="G187">
-        <v>212.3673976117339</v>
+        <v>4841440.274485495</v>
       </c>
       <c r="H187">
-        <v>1348.540262362212</v>
+        <v>3986100.334996295</v>
       </c>
       <c r="I187">
-        <v>-541.8571700127951</v>
+        <v>1115921.435606699</v>
       </c>
       <c r="J187">
-        <v>894.6522568859926</v>
+        <v>4841957.890257031</v>
       </c>
       <c r="K187">
-        <v>2766.802443823021</v>
+        <v>3987340.951407671</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6996,34 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>84.35106285685274</v>
+        <v>1116415.956647692</v>
       </c>
       <c r="G188">
-        <v>228.7739026670496</v>
+        <v>4841456.787311417</v>
       </c>
       <c r="H188">
-        <v>1360.52908867167</v>
+        <v>3986115.675347996</v>
       </c>
       <c r="I188">
-        <v>-473.0499424956139</v>
+        <v>1115977.176658372</v>
       </c>
       <c r="J188">
-        <v>835.4375943461541</v>
+        <v>4841909.238673247</v>
       </c>
       <c r="K188">
-        <v>2683.047240615632</v>
+        <v>3987250.882328483</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7031,34 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>82.32054749746574</v>
+        <v>1116414.63243633</v>
       </c>
       <c r="G189">
-        <v>245.1804077223653</v>
+        <v>4841473.300137337</v>
       </c>
       <c r="H189">
-        <v>1371.934580823991</v>
+        <v>3986130.269292092</v>
       </c>
       <c r="I189">
-        <v>-402.548400302311</v>
+        <v>1116034.290282161</v>
       </c>
       <c r="J189">
-        <v>776.2229318063156</v>
+        <v>4841860.587089464</v>
       </c>
       <c r="K189">
-        <v>2585.20532023669</v>
+        <v>3987145.664606633</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7066,34 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>80.42984898949291</v>
+        <v>1116413.399407269</v>
       </c>
       <c r="G190">
-        <v>261.5869127776811</v>
+        <v>4841489.812963259</v>
       </c>
       <c r="H190">
-        <v>1382.810880628545</v>
+        <v>3986144.186105957</v>
       </c>
       <c r="I190">
-        <v>-330.3108224927277</v>
+        <v>1116092.810276393</v>
       </c>
       <c r="J190">
-        <v>717.0082692664774</v>
+        <v>4841811.93550568</v>
       </c>
       <c r="K190">
-        <v>2473.276682686195</v>
+        <v>3987025.298242121</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7101,34 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>78.66363431364685</v>
+        <v>1116412.247561</v>
       </c>
       <c r="G191">
-        <v>277.9934178329968</v>
+        <v>4841506.325789182</v>
       </c>
       <c r="H191">
-        <v>1393.20492529666</v>
+        <v>3986157.485848292</v>
       </c>
       <c r="I191">
-        <v>-256.2944607869363</v>
+        <v>1116152.771271645</v>
       </c>
       <c r="J191">
-        <v>657.7936067266389</v>
+        <v>4841763.283921896</v>
       </c>
       <c r="K191">
-        <v>2347.261327964146</v>
+        <v>3986889.783234948</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7136,34 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>77.00882446045689</v>
+        <v>1116411.168367977</v>
       </c>
       <c r="G192">
-        <v>294.3999228883125</v>
+        <v>4841522.838615103</v>
       </c>
       <c r="H192">
-        <v>1403.157671612151</v>
+        <v>3986170.220925516</v>
       </c>
       <c r="I192">
-        <v>-180.4555142679437</v>
+        <v>1116214.208751243</v>
       </c>
       <c r="J192">
-        <v>598.5789441868008</v>
+        <v>4841714.632338114</v>
       </c>
       <c r="K192">
-        <v>2207.159256070545</v>
+        <v>3986739.119585113</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7171,34 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>75.45418577915936</v>
+        <v>1116410.154502115</v>
       </c>
       <c r="G193">
-        <v>310.8064279436283</v>
+        <v>4841539.351441024</v>
       </c>
       <c r="H193">
-        <v>1412.705070655718</v>
+        <v>3986182.43733898</v>
       </c>
       <c r="I193">
-        <v>-102.7491034614722</v>
+        <v>1116277.159072253</v>
       </c>
       <c r="J193">
-        <v>539.3642816469622</v>
+        <v>4841665.980754331</v>
       </c>
       <c r="K193">
-        <v>2052.970467005391</v>
+        <v>3986573.307292617</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7206,34 @@
         <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>73.99000833315525</v>
+        <v>1116409.199631027</v>
       </c>
       <c r="G194">
-        <v>327.212932998944</v>
+        <v>4841555.864266945</v>
       </c>
       <c r="H194">
-        <v>1421.878851697072</v>
+        <v>3986194.175688004</v>
       </c>
       <c r="I194">
-        <v>-23.12924377747877</v>
+        <v>1116341.659487006</v>
       </c>
       <c r="J194">
-        <v>480.1496191071238</v>
+        <v>4841617.329170546</v>
       </c>
       <c r="K194">
-        <v>1884.694960768683</v>
+        <v>3986392.346357459</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7241,34 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>72.60785019392085</v>
+        <v>1116408.298249266</v>
       </c>
       <c r="G195">
-        <v>343.6194380542597</v>
+        <v>4841572.377092867</v>
       </c>
       <c r="H195">
-        <v>1430.707158404034</v>
+        <v>3986205.471983931</v>
       </c>
       <c r="I195">
-        <v>58.45118170230543</v>
+        <v>1116407.748165132</v>
       </c>
       <c r="J195">
-        <v>420.9349565672856</v>
+        <v>4841568.677586763</v>
       </c>
       <c r="K195">
-        <v>1702.332737360422</v>
+        <v>3986196.23677964</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7276,34 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>71.30033227799061</v>
+        <v>1116407.445544521</v>
       </c>
       <c r="G196">
-        <v>360.0259431095754</v>
+        <v>4841588.889918788</v>
       </c>
       <c r="H196">
-        <v>1439.215069547478</v>
+        <v>3986216.358316406</v>
       </c>
       <c r="I196">
-        <v>142.040450106914</v>
+        <v>1116475.464216157</v>
       </c>
       <c r="J196">
-        <v>361.7202940274471</v>
+        <v>4841520.02600298</v>
       </c>
       <c r="K196">
-        <v>1505.883796780609</v>
+        <v>3985984.97855916</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7311,34 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>70.06097233388194</v>
+        <v>1116406.63728936</v>
       </c>
       <c r="G197">
-        <v>376.4324481648912</v>
+        <v>4841605.40274471</v>
       </c>
       <c r="H197">
-        <v>1447.425028486711</v>
+        <v>3986226.863402919</v>
       </c>
       <c r="I197">
-        <v>227.6880273452699</v>
+        <v>1116544.847712641</v>
       </c>
       <c r="J197">
-        <v>302.5056314876089</v>
+        <v>4841471.374419197</v>
       </c>
       <c r="K197">
-        <v>1295.348139029242</v>
+        <v>3985758.571696017</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7346,34 @@
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>68.88404954882429</v>
+        <v>1116405.869752923</v>
       </c>
       <c r="G198">
-        <v>392.8389532202069</v>
+        <v>4841621.915570632</v>
       </c>
       <c r="H198">
-        <v>1455.357199964253</v>
+        <v>3986237.013045351</v>
       </c>
       <c r="I198">
-        <v>315.4445973787932</v>
+        <v>1116615.939713894</v>
       </c>
       <c r="J198">
-        <v>243.2909689477704</v>
+        <v>4841422.722835412</v>
       </c>
       <c r="K198">
-        <v>1070.725764106322</v>
+        <v>3985517.016190214</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7381,34 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>67.76449331945716</v>
+        <v>1116405.13962839</v>
       </c>
       <c r="G199">
-        <v>409.2454582755226</v>
+        <v>4841638.428396553</v>
       </c>
       <c r="H199">
-        <v>1463.029768491411</v>
+        <v>3986246.830511767</v>
       </c>
       <c r="I199">
-        <v>405.3620922148287</v>
+        <v>1116688.782290275</v>
       </c>
       <c r="J199">
-        <v>184.076306407932</v>
+        <v>4841374.071251629</v>
       </c>
       <c r="K199">
-        <v>832.0166720118484</v>
+        <v>3985260.312041749</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7416,34 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>66.69779125141181</v>
+        <v>1116404.443972978</v>
       </c>
       <c r="G200">
-        <v>425.6519633308383</v>
+        <v>4841654.941222474</v>
       </c>
       <c r="H200">
-        <v>1470.459189436082</v>
+        <v>3986256.3368577</v>
       </c>
       <c r="I200">
-        <v>497.4937226386218</v>
+        <v>1116763.418548085</v>
       </c>
       <c r="J200">
-        <v>124.8616438680937</v>
+        <v>4841325.419667846</v>
       </c>
       <c r="K200">
-        <v>579.2208627458227</v>
+        <v>3984988.459250622</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7451,34 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>65.6799125799276</v>
+        <v>1116403.780158004</v>
       </c>
       <c r="G201">
-        <v>442.058468386154</v>
+        <v>4841671.454048396</v>
       </c>
       <c r="H201">
-        <v>1477.660401533738</v>
+        <v>3986265.55119807</v>
       </c>
       <c r="I201">
-        <v>591.894009702057</v>
+        <v>1116839.892655079</v>
       </c>
       <c r="J201">
-        <v>65.64698132825525</v>
+        <v>4841276.768084062</v>
       </c>
       <c r="K201">
-        <v>312.338336308243</v>
+        <v>3984701.457816834</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7486,34 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>64.70724404777357</v>
+        <v>1116403.145827061</v>
       </c>
       <c r="G202">
-        <v>458.4649734414698</v>
+        <v>4841687.966874317</v>
       </c>
       <c r="H202">
-        <v>1484.647007722363</v>
+        <v>3986274.490938573</v>
       </c>
       <c r="I202">
-        <v>688.6188169877569</v>
+        <v>1116918.249866603</v>
       </c>
       <c r="J202">
-        <v>6.432318788416772</v>
+        <v>4841228.116500279</v>
       </c>
       <c r="K202">
-        <v>31.36909269911048</v>
+        <v>3984399.307740384</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7521,34 @@
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>63.77653591493971</v>
+        <v>1116402.538860816</v>
       </c>
       <c r="G203">
-        <v>474.8714784967855</v>
+        <v>4841704.479700238</v>
       </c>
       <c r="H203">
-        <v>1491.431429803506</v>
+        <v>3986283.171973573</v>
       </c>
       <c r="I203">
-        <v>787.7253836676753</v>
+        <v>1116998.536552374</v>
       </c>
       <c r="J203">
-        <v>-52.78234375142144</v>
+        <v>4841179.464916496</v>
       </c>
       <c r="K203">
-        <v>-263.6868680815743</v>
+        <v>3984082.009021273</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7556,34 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>62.88485626138783</v>
+        <v>1116401.9573472</v>
       </c>
       <c r="G204">
-        <v>491.2779835521012</v>
+        <v>4841720.992526161</v>
       </c>
       <c r="H204">
-        <v>1498.025041347908</v>
+        <v>3986291.608856172</v>
       </c>
       <c r="I204">
-        <v>889.2723583757177</v>
+        <v>1117080.80022392</v>
       </c>
       <c r="J204">
-        <v>-111.9970062912599</v>
+        <v>4841130.813332712</v>
       </c>
       <c r="K204">
-        <v>-572.8295460338131</v>
+        <v>3983749.5616595</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7591,34 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>62.02955211863316</v>
+        <v>1116401.399556066</v>
       </c>
       <c r="G205">
-        <v>507.684488607417</v>
+        <v>4841737.505352082</v>
       </c>
       <c r="H205">
-        <v>1504.438282417721</v>
+        <v>3986299.814944993</v>
       </c>
       <c r="I205">
-        <v>993.3198339144426</v>
+        <v>1117165.089562696</v>
       </c>
       <c r="J205">
-        <v>-171.2116688310984</v>
+        <v>4841082.161748928</v>
       </c>
       <c r="K205">
-        <v>-896.0589411576057</v>
+        <v>3983401.965655066</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7626,34 @@
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>61.20821625628351</v>
+        <v>1116400.863917527</v>
       </c>
       <c r="G206">
-        <v>524.0909936627327</v>
+        <v>4841754.018178003</v>
       </c>
       <c r="H206">
-        <v>1510.680759011281</v>
+        <v>3986307.802531431</v>
       </c>
       <c r="I206">
-        <v>1099.929382816386</v>
+        <v>1117251.454448894</v>
       </c>
       <c r="J206">
-        <v>-230.4263313709369</v>
+        <v>4841033.510165145</v>
       </c>
       <c r="K206">
-        <v>-1233.375053452951</v>
+        <v>3983039.22100797</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7661,34 @@
         <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>60.41865867644825</v>
+        <v>1116400.349003364</v>
       </c>
       <c r="G207">
-        <v>540.4974987180484</v>
+        <v>4841770.531003925</v>
       </c>
       <c r="H207">
-        <v>1516.761329608609</v>
+        <v>3986315.582950389</v>
       </c>
       <c r="I207">
-        <v>1209.164093781053</v>
+        <v>1117339.945990961</v>
       </c>
       <c r="J207">
-        <v>-289.6409939107748</v>
+        <v>4840984.858581361</v>
       </c>
       <c r="K207">
-        <v>-1584.777882919847</v>
+        <v>3982661.327718213</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7696,34 @@
         <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>59.6588820473218</v>
+        <v>1116399.853511005</v>
       </c>
       <c r="G208">
-        <v>556.9040037733641</v>
+        <v>4841787.043829846</v>
       </c>
       <c r="H208">
-        <v>1522.688180774814</v>
+        <v>3986323.166677021</v>
       </c>
       <c r="I208">
-        <v>1321.088609009134</v>
+        <v>1117430.616555841</v>
       </c>
       <c r="J208">
-        <v>-348.8556564506133</v>
+        <v>4840936.206997578</v>
       </c>
       <c r="K208">
-        <v>-1950.267429558298</v>
+        <v>3982268.285785794</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7731,34 @@
         <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>58.92706044849255</v>
+        <v>1116399.376249668</v>
       </c>
       <c r="G209">
-        <v>573.3105088286799</v>
+        <v>4841803.556655767</v>
       </c>
       <c r="H209">
-        <v>1528.468893440663</v>
+        <v>3986330.563411538</v>
       </c>
       <c r="I209">
-        <v>1435.769162456041</v>
+        <v>1117523.519799965</v>
       </c>
       <c r="J209">
-        <v>-408.0703189904518</v>
+        <v>4840887.555413794</v>
       </c>
       <c r="K209">
-        <v>-2329.843693368302</v>
+        <v>3981860.095210713</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7766,34 @@
         <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>58.221520913069</v>
+        <v>1116398.916128317</v>
       </c>
       <c r="G210">
-        <v>589.7170138839955</v>
+        <v>4841820.069481689</v>
       </c>
       <c r="H210">
-        <v>1534.110501206704</v>
+        <v>3986337.782153811</v>
       </c>
       <c r="I210">
-        <v>1553.273619027402</v>
+        <v>1117618.710701007</v>
       </c>
       <c r="J210">
-        <v>-467.2849815302903</v>
+        <v>4840838.90383001</v>
       </c>
       <c r="K210">
-        <v>-2723.50667434986</v>
+        <v>3981436.755992972</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7801,34 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>57.54072734192089</v>
+        <v>1116398.472145179</v>
       </c>
       <c r="G211">
-        <v>606.1235189393113</v>
+        <v>4841836.582307611</v>
       </c>
       <c r="H211">
-        <v>1539.619541795835</v>
+        <v>3986344.831269212</v>
       </c>
       <c r="I211">
-        <v>1673.671514739717</v>
+        <v>1117716.245590413</v>
       </c>
       <c r="J211">
-        <v>-526.4996440701287</v>
+        <v>4840790.252246227</v>
       </c>
       <c r="K211">
-        <v>-3131.25637250297</v>
+        <v>3980998.268132568</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7836,34 @@
         <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>56.8832664380316</v>
+        <v>1116398.043378563</v>
       </c>
       <c r="G212">
-        <v>622.5300239946271</v>
+        <v>4841853.095133532</v>
       </c>
       <c r="H212">
-        <v>1545.00210259835</v>
+        <v>3986351.718546885</v>
       </c>
       <c r="I212">
-        <v>1797.034097869912</v>
+        <v>1117816.18218674</v>
       </c>
       <c r="J212">
-        <v>-585.7143066099667</v>
+        <v>4840741.600662445</v>
       </c>
       <c r="K212">
-        <v>-3553.092787827631</v>
+        <v>3980544.631629504</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7871,34 @@
         <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>56.24783536787934</v>
+        <v>1116397.62897882</v>
       </c>
       <c r="G213">
-        <v>638.9365290499427</v>
+        <v>4841869.607959454</v>
       </c>
       <c r="H213">
-        <v>1550.263861105152</v>
+        <v>3986358.451251486</v>
       </c>
       <c r="I213">
-        <v>1923.434371118195</v>
+        <v>1117918.579629811</v>
       </c>
       <c r="J213">
-        <v>-644.9289691498052</v>
+        <v>4840692.94907866</v>
       </c>
       <c r="K213">
-        <v>-3989.015920323848</v>
+        <v>3980075.846483777</v>
       </c>
     </row>
   </sheetData>
